--- a/U302 SAT/Project Plans/SAT Gantt Chart (old).xlsx
+++ b/U302 SAT/Project Plans/SAT Gantt Chart (old).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caulfieldgs-my.sharepoint.com/personal/153527_caulfieldgs_vic_edu_au/Documents/CGS Files/STEM/Software Dev/AOS2 Programming/Code/software-dev/Term 2/Weeks 1 and 2/quire-to-excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caulfieldgs-my.sharepoint.com/personal/153527_caulfieldgs_vic_edu_au/Documents/CGS Files/STEM/Software Dev/U302 SAT/Project Plans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_49F5820021F4C07AAF1E5DC19D11547CC5CA47F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E44A1F6-9F2D-0E41-8AA8-439971B4E8B0}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_609DE31E21F4DED2AF15952FE40E7812D7CB8A3D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2B961A9-4040-3F4A-8C39-542F0C4FF6CE}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="1" r:id="rId1"/>
@@ -317,7 +317,7 @@
     <numFmt numFmtId="167" formatCode="ddd\,\ d/m/yyyy"/>
     <numFmt numFmtId="168" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1159,7 +1159,67 @@
     <cellStyle name="Title" xfId="4" builtinId="15"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1464,15 +1524,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="29"/>
-      <tableStyleElement type="headerRow" dxfId="28"/>
-      <tableStyleElement type="totalRow" dxfId="27"/>
-      <tableStyleElement type="firstColumn" dxfId="26"/>
-      <tableStyleElement type="lastColumn" dxfId="25"/>
-      <tableStyleElement type="firstRowStripe" dxfId="24"/>
-      <tableStyleElement type="secondRowStripe" dxfId="23"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="22"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="21"/>
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="totalRow" dxfId="33"/>
+      <tableStyleElement type="firstColumn" dxfId="32"/>
+      <tableStyleElement type="lastColumn" dxfId="31"/>
+      <tableStyleElement type="firstRowStripe" dxfId="30"/>
+      <tableStyleElement type="secondRowStripe" dxfId="29"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="28"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="27"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1559,22 +1619,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>84959</xdr:colOff>
+      <xdr:colOff>136710</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>79409</xdr:rowOff>
+      <xdr:rowOff>121287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>96957</xdr:colOff>
+      <xdr:colOff>76103</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>318008</xdr:rowOff>
+      <xdr:rowOff>353356</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Bent Arrow 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB3963D-3FF1-564F-B34A-D766259CFF4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065575A7-5A22-6F4C-94F8-DD8B503FEB71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1582,8 +1642,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9597809" y="1502046"/>
-          <a:ext cx="620723" cy="4024299"/>
+          <a:off x="9749319" y="1582187"/>
+          <a:ext cx="610841" cy="4150446"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst>
@@ -1630,23 +1690,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>169333</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>50905</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>169337</xdr:rowOff>
+      <xdr:rowOff>112872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>105883</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>126837</xdr:rowOff>
+      <xdr:colOff>163780</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>364247</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Bent Arrow 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9A62158-7A43-CE4F-BC1A-0EC92BD9E23A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8D15A8-033A-1140-9076-D699DB876204}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1654,8 +1714,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9235124" y="4447013"/>
-          <a:ext cx="5020567" cy="1240416"/>
+          <a:off x="9762884" y="4326332"/>
+          <a:ext cx="4796638" cy="1316033"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst>
@@ -1703,22 +1763,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>43356</xdr:colOff>
+      <xdr:colOff>48950</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>126694</xdr:rowOff>
+      <xdr:rowOff>93805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>89725</xdr:colOff>
+      <xdr:colOff>91862</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>365393</xdr:rowOff>
+      <xdr:rowOff>334732</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Bent Arrow 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{581AC9F5-3BA3-224E-93B9-52A10F8F05BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1565F574-452C-1E44-8C8B-76DDA2107B0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,8 +1786,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="12830635" y="7814638"/>
-          <a:ext cx="238699" cy="243924"/>
+          <a:off x="12767173" y="7910505"/>
+          <a:ext cx="240927" cy="238297"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst/>
@@ -1770,22 +1830,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>49415</xdr:colOff>
+      <xdr:colOff>48094</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>96761</xdr:rowOff>
+      <xdr:rowOff>57341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>95784</xdr:colOff>
+      <xdr:colOff>91006</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>333443</xdr:rowOff>
+      <xdr:rowOff>296251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Bent Arrow 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87DA9CB6-6158-714F-A95A-ED815F5BECC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D2C0AB1-C243-054B-B1D2-D9DC112D2EA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,8 +1853,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="13232814" y="8164696"/>
-          <a:ext cx="236682" cy="243924"/>
+          <a:off x="13158095" y="8254033"/>
+          <a:ext cx="238910" cy="238296"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst/>
@@ -1837,22 +1897,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>65138</xdr:colOff>
+      <xdr:colOff>56903</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>131103</xdr:rowOff>
+      <xdr:rowOff>124231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>43381</xdr:colOff>
+      <xdr:colOff>24773</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>308504</xdr:rowOff>
+      <xdr:rowOff>303860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Bent Arrow 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5152F06-385F-C24B-9A0B-C66FAB436917}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50224F5A-B663-974A-93CA-01E648119B78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,8 +1920,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="13836781" y="8386905"/>
-          <a:ext cx="177401" cy="570910"/>
+          <a:off x="13745177" y="8514419"/>
+          <a:ext cx="179629" cy="554024"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst/>
@@ -1904,22 +1964,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>80561</xdr:colOff>
+      <xdr:colOff>58496</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>76733</xdr:rowOff>
+      <xdr:rowOff>102406</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>126931</xdr:colOff>
+      <xdr:colOff>101408</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>313416</xdr:rowOff>
+      <xdr:rowOff>341317</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Bent Arrow 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5115A7D-2571-8A4D-AF85-0A294FB15DF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DCF643-794A-2E41-94F9-7EDE35D6A2A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,8 +1987,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="14449293" y="8906668"/>
-          <a:ext cx="236683" cy="243926"/>
+          <a:off x="14340804" y="9061098"/>
+          <a:ext cx="238911" cy="238297"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst/>
@@ -1971,22 +2031,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>51745</xdr:colOff>
+      <xdr:colOff>38847</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>146966</xdr:rowOff>
+      <xdr:rowOff>185647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>2319</xdr:colOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>177890</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>298403</xdr:rowOff>
+      <xdr:rowOff>332782</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Bent Arrow 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0290F1C0-C6ED-054D-A2D8-A689D3706171}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949DE625-A25E-E142-AAE3-8B2397163E2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1994,8 +2054,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="14640605" y="9485805"/>
-          <a:ext cx="533561" cy="332698"/>
+          <a:off x="14810762" y="9621886"/>
+          <a:ext cx="528135" cy="334428"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst/>
@@ -2038,22 +2098,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>56195</xdr:colOff>
+      <xdr:colOff>66841</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>78672</xdr:rowOff>
+      <xdr:rowOff>75989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>11051</xdr:colOff>
+      <xdr:colOff>18240</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>307300</xdr:rowOff>
+      <xdr:rowOff>304617</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Bent Arrow 9">
+        <xdr:cNvPr id="9" name="Bent Arrow 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F741BCE0-EBD8-414B-9437-7AE88EC9778A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F735DDF9-3748-4540-8920-FBDFDED10494}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,8 +2121,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="7634840" y="3244452"/>
-          <a:ext cx="228628" cy="145918"/>
+          <a:off x="7670771" y="3345042"/>
+          <a:ext cx="228628" cy="151925"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst/>
@@ -2105,22 +2165,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>51978</xdr:colOff>
+      <xdr:colOff>70195</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>156436</xdr:rowOff>
+      <xdr:rowOff>158428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>117171</xdr:colOff>
+      <xdr:colOff>135388</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>348059</xdr:rowOff>
+      <xdr:rowOff>350051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Bent Arrow 10">
+        <xdr:cNvPr id="10" name="Bent Arrow 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7153783F-F172-4446-8C78-FC25842D6FD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A93D71B-5FFE-8E4C-A864-1F15E03B9B28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2128,7 +2188,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="12958498" y="6018943"/>
+          <a:off x="13117288" y="6132028"/>
           <a:ext cx="191623" cy="65193"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
@@ -2172,22 +2232,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>49525</xdr:colOff>
+      <xdr:colOff>65331</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>92000</xdr:rowOff>
+      <xdr:rowOff>72012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>95894</xdr:colOff>
+      <xdr:colOff>108242</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>328682</xdr:rowOff>
+      <xdr:rowOff>310922</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Bent Arrow 13">
+        <xdr:cNvPr id="11" name="Bent Arrow 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8E05E13-34D7-F44E-94FF-2E1FD22406E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{497488AD-F8CC-AC44-8BE8-78F0069D12E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2195,8 +2255,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="15312378" y="10476404"/>
-          <a:ext cx="236682" cy="237431"/>
+          <a:off x="15519947" y="10554704"/>
+          <a:ext cx="238910" cy="238296"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst/>
@@ -2239,22 +2299,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>83822</xdr:colOff>
+      <xdr:colOff>73175</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>107093</xdr:rowOff>
+      <xdr:rowOff>100114</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>130192</xdr:colOff>
+      <xdr:colOff>116088</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>343775</xdr:rowOff>
+      <xdr:rowOff>339024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Bent Arrow 14">
+        <xdr:cNvPr id="12" name="Bent Arrow 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D63B188C-0CEA-6C40-94DD-980F83A5D4AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34E05600-A78B-CB4E-8350-7EB46D6FAB6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2262,8 +2322,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="15728799" y="10873621"/>
-          <a:ext cx="236682" cy="237432"/>
+          <a:off x="15918561" y="10963805"/>
+          <a:ext cx="238910" cy="238298"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst/>
@@ -2306,22 +2366,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>66349</xdr:colOff>
+      <xdr:colOff>58556</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>106402</xdr:rowOff>
+      <xdr:rowOff>92893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>112718</xdr:colOff>
+      <xdr:colOff>101468</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>343085</xdr:rowOff>
+      <xdr:rowOff>331804</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Bent Arrow 15">
+        <xdr:cNvPr id="13" name="Bent Arrow 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A73C4B8-D8CC-F64E-B4A9-ADE0F27DE4FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B88CC8-A844-494A-8B60-3C473E6C2EF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2329,8 +2389,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="16093449" y="11255055"/>
-          <a:ext cx="236683" cy="237431"/>
+          <a:off x="16294710" y="11337586"/>
+          <a:ext cx="238911" cy="238296"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst/>
@@ -2373,22 +2433,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>81050</xdr:colOff>
+      <xdr:colOff>62885</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>75486</xdr:rowOff>
+      <xdr:rowOff>97760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
-      <xdr:colOff>127419</xdr:colOff>
+      <xdr:colOff>105797</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>321759</xdr:rowOff>
+      <xdr:rowOff>346261</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Bent Arrow 17">
+        <xdr:cNvPr id="14" name="Bent Arrow 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{577B7A81-5F69-B643-832D-FE2D9100C81E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D404901-F458-5E43-8854-0A5DF331134C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2396,8 +2456,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="16676540" y="11993182"/>
-          <a:ext cx="246273" cy="237430"/>
+          <a:off x="16880398" y="12109247"/>
+          <a:ext cx="248501" cy="238297"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst/>
@@ -2440,22 +2500,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>69575</xdr:colOff>
+      <xdr:colOff>41039</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>172838</xdr:rowOff>
+      <xdr:rowOff>178814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>43722</xdr:colOff>
+      <xdr:colOff>11728</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>311995</xdr:rowOff>
+      <xdr:rowOff>313669</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Bent Arrow 19">
+        <xdr:cNvPr id="15" name="Bent Arrow 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A047C80-FE00-E041-8153-6DADFA10B726}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{950E5418-A589-4A48-BD8B-D5383CF3122D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,8 +2523,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="17064636" y="12646272"/>
-          <a:ext cx="521281" cy="165209"/>
+          <a:off x="17274917" y="12741090"/>
+          <a:ext cx="515855" cy="166074"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst/>
@@ -2506,23 +2566,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>89</xdr:col>
-      <xdr:colOff>78156</xdr:colOff>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>41937</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>133690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>94</xdr:col>
-      <xdr:colOff>144344</xdr:colOff>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>90838</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>29862</xdr:rowOff>
+      <xdr:rowOff>157022</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Bent Arrow 16">
+        <xdr:cNvPr id="16" name="Bent Arrow 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80E19B5-5DB1-3C40-90A3-40333EC47020}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26EBC57F-DA57-6543-82E9-BCA0AE52AF7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2530,8 +2590,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="23268934" y="79529"/>
-          <a:ext cx="420631" cy="1043112"/>
+          <a:off x="21644722" y="187747"/>
+          <a:ext cx="402104" cy="1051533"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst/>
@@ -2573,23 +2633,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>39457</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>5</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>82</xdr:col>
-      <xdr:colOff>59496</xdr:colOff>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>92039</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>80662</xdr:rowOff>
+      <xdr:rowOff>74137</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Diamond 18">
+        <xdr:cNvPr id="17" name="Diamond 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90F9401-0781-654C-807A-3695CF514C9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC64611-A2CA-0D4A-BB95-4E0C845DCBFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2597,8 +2657,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21121077" y="390769"/>
-          <a:ext cx="450265" cy="471431"/>
+          <a:off x="20314896" y="378777"/>
+          <a:ext cx="453634" cy="452904"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -2637,22 +2697,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>103228</xdr:colOff>
+      <xdr:colOff>74089</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>84629</xdr:rowOff>
+      <xdr:rowOff>129628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
-      <xdr:colOff>149597</xdr:colOff>
+      <xdr:colOff>117000</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>330902</xdr:rowOff>
+      <xdr:rowOff>378129</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Bent Arrow 20">
+        <xdr:cNvPr id="18" name="Bent Arrow 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3956CB59-5409-9247-8B86-597B3C33E72A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C21E23C4-C9EB-E245-AA91-3A731E90AC45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,8 +2720,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="17571609" y="13773581"/>
-          <a:ext cx="246273" cy="232636"/>
+          <a:off x="18063909" y="13665116"/>
+          <a:ext cx="248501" cy="238296"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst/>
@@ -2704,22 +2764,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>70</xdr:col>
-      <xdr:colOff>48264</xdr:colOff>
+      <xdr:colOff>32830</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>119468</xdr:rowOff>
+      <xdr:rowOff>99321</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
-      <xdr:colOff>94633</xdr:colOff>
+      <xdr:colOff>70599</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>365741</xdr:rowOff>
+      <xdr:rowOff>347822</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Bent Arrow 21">
+        <xdr:cNvPr id="19" name="Bent Arrow 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F8DEF0-F919-CF40-BBF7-0BCBE7B304CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BD67154-8C62-C84D-970B-3F5735694A56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2727,8 +2787,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="18727656" y="14043683"/>
-          <a:ext cx="246273" cy="233746"/>
+          <a:off x="19192387" y="14018380"/>
+          <a:ext cx="248501" cy="233153"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst/>
@@ -2771,22 +2831,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>75747</xdr:colOff>
+      <xdr:colOff>67794</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>115721</xdr:rowOff>
+      <xdr:rowOff>118351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>73</xdr:col>
-      <xdr:colOff>122116</xdr:colOff>
+      <xdr:colOff>110706</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>361994</xdr:rowOff>
+      <xdr:rowOff>366852</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Bent Arrow 22">
+        <xdr:cNvPr id="20" name="Bent Arrow 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45847D9C-15E8-2544-AB30-7F52C9A0A60A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25ADFFE8-A6D7-3F4E-8E38-6B6FE1B95A82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2794,8 +2854,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="19129893" y="14425100"/>
-          <a:ext cx="246273" cy="233746"/>
+          <a:off x="19620692" y="14415838"/>
+          <a:ext cx="248501" cy="238297"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst/>
@@ -2838,22 +2898,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>77</xdr:col>
-      <xdr:colOff>92819</xdr:colOff>
+      <xdr:colOff>67579</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>111974</xdr:rowOff>
+      <xdr:rowOff>108073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>78</xdr:col>
-      <xdr:colOff>139188</xdr:colOff>
+      <xdr:colOff>110491</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>358247</xdr:rowOff>
+      <xdr:rowOff>356574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Bent Arrow 23">
+        <xdr:cNvPr id="21" name="Bent Arrow 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB385620-7662-A044-A59A-A17B204750C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98372A6C-B2FC-534A-9BEE-D584E2BC921C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2861,8 +2921,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="20083850" y="14806517"/>
-          <a:ext cx="246273" cy="233746"/>
+          <a:off x="20597400" y="14786560"/>
+          <a:ext cx="248501" cy="238297"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst/>
@@ -2905,22 +2965,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>82</xdr:col>
-      <xdr:colOff>57842</xdr:colOff>
+      <xdr:colOff>79074</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>118637</xdr:rowOff>
+      <xdr:rowOff>88668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>83</xdr:col>
-      <xdr:colOff>104211</xdr:colOff>
+      <xdr:colOff>109285</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>364910</xdr:rowOff>
+      <xdr:rowOff>337169</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Bent Arrow 24">
+        <xdr:cNvPr id="22" name="Bent Arrow 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD2B9C67-386C-4E4A-AD5E-E693CC1F67E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E5C88E-BBDC-5B4E-8358-A711E41DE554}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2928,8 +2988,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="20985758" y="15198344"/>
-          <a:ext cx="246273" cy="233746"/>
+          <a:off x="21579467" y="15154506"/>
+          <a:ext cx="248501" cy="225596"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst/>
@@ -2972,22 +3032,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>124437</xdr:colOff>
+      <xdr:colOff>196164</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>369950</xdr:rowOff>
+      <xdr:rowOff>320016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>183933</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>48219</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>65448</xdr:rowOff>
+      <xdr:rowOff>2453</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Diamond 25">
+        <xdr:cNvPr id="23" name="Diamond 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCA1D7A3-BD36-8747-8E52-8B0B4CFB0BD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D5914EA-AF01-5A42-AFC4-5629E724D6C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2995,8 +3055,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11689765" y="2347819"/>
-          <a:ext cx="434250" cy="465826"/>
+          <a:off x="12049497" y="2414402"/>
+          <a:ext cx="453634" cy="439981"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -3035,22 +3095,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>120690</xdr:colOff>
+      <xdr:colOff>171673</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>334974</xdr:rowOff>
+      <xdr:rowOff>350731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>180186</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>23728</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>30472</xdr:rowOff>
+      <xdr:rowOff>33168</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Diamond 26">
+        <xdr:cNvPr id="24" name="Diamond 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B7B5E2-9175-C540-91C0-6F73DC34BC19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FACB1703-C6CF-0B44-B60A-0801A19F5C46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3058,8 +3118,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12810280" y="5008990"/>
-          <a:ext cx="434250" cy="465826"/>
+          <a:off x="13228164" y="5096520"/>
+          <a:ext cx="453634" cy="439981"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -3098,22 +3158,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>106532</xdr:colOff>
+      <xdr:colOff>159163</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>299996</xdr:rowOff>
+      <xdr:rowOff>331242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>166028</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>380658</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>16360</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>24373</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Diamond 27">
+        <xdr:cNvPr id="25" name="Diamond 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F1CB9A-2FAA-5242-B973-B17AA3890332}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB2EC99-CFA8-294E-A954-5D66B6F95094}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3121,8 +3181,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14295139" y="7284996"/>
-          <a:ext cx="434250" cy="465826"/>
+          <a:off x="14637163" y="7384627"/>
+          <a:ext cx="443351" cy="455131"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -3161,22 +3221,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>67</xdr:col>
-      <xdr:colOff>92375</xdr:colOff>
+      <xdr:colOff>131018</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>348297</xdr:rowOff>
+      <xdr:rowOff>353367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
-      <xdr:colOff>151871</xdr:colOff>
+      <xdr:colOff>183599</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>43796</xdr:rowOff>
+      <xdr:rowOff>33577</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Diamond 28">
+        <xdr:cNvPr id="26" name="Diamond 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55364B91-B926-9C4E-AFE1-189DE8C71FF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F616534B-5764-EE40-8C30-4A78342E2DA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3184,8 +3244,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18215900" y="10029445"/>
-          <a:ext cx="434250" cy="465826"/>
+          <a:off x="18712095" y="10073752"/>
+          <a:ext cx="443350" cy="442210"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -3224,22 +3284,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>83</xdr:col>
-      <xdr:colOff>161497</xdr:colOff>
+      <xdr:colOff>135053</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>344550</xdr:rowOff>
+      <xdr:rowOff>326684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>86</xdr:col>
-      <xdr:colOff>33615</xdr:colOff>
+      <xdr:colOff>1940</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>40048</xdr:rowOff>
+      <xdr:rowOff>6892</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Diamond 29">
+        <xdr:cNvPr id="27" name="Diamond 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{485A8FA6-E4DC-CA4F-B14D-8666F96B0A96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10739F6-5C91-384B-AF8E-AF78E1FDD3C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3247,8 +3307,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21283054" y="13107009"/>
-          <a:ext cx="434250" cy="465826"/>
+          <a:off x="21842284" y="13095069"/>
+          <a:ext cx="453041" cy="442208"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -3606,14 +3666,14 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DX89"/>
+  <dimension ref="A1:GR89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="58" zoomScaleNormal="122" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="68" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BX21" sqref="BX21"/>
+      <selection pane="bottomLeft" activeCell="BC14" sqref="BC14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="27" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -3623,10 +3683,10 @@
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="2.6640625" customWidth="1"/>
     <col min="8" max="8" width="6.1640625" hidden="1" customWidth="1"/>
-    <col min="9" max="106" width="2.5" customWidth="1"/>
+    <col min="9" max="120" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" ht="30" customHeight="1">
+    <row r="1" spans="1:200" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -3642,7 +3702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:128" ht="30" customHeight="1">
+    <row r="2" spans="1:200" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>3</v>
       </c>
@@ -3653,7 +3713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:128" ht="30" customHeight="1">
+    <row r="3" spans="1:200" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>6</v>
       </c>
@@ -3669,7 +3729,7 @@
       </c>
       <c r="F3" s="130"/>
     </row>
-    <row r="4" spans="1:128" ht="20" customHeight="1">
+    <row r="4" spans="1:200" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>9</v>
       </c>
@@ -3820,8 +3880,28 @@
       <c r="CZ4" s="127"/>
       <c r="DA4" s="127"/>
       <c r="DB4" s="128"/>
+      <c r="DC4" s="126">
+        <f>DC5</f>
+        <v>44753</v>
+      </c>
+      <c r="DD4" s="127"/>
+      <c r="DE4" s="127"/>
+      <c r="DF4" s="127"/>
+      <c r="DG4" s="127"/>
+      <c r="DH4" s="127"/>
+      <c r="DI4" s="128"/>
+      <c r="DJ4" s="126">
+        <f>DJ5</f>
+        <v>44760</v>
+      </c>
+      <c r="DK4" s="127"/>
+      <c r="DL4" s="127"/>
+      <c r="DM4" s="127"/>
+      <c r="DN4" s="127"/>
+      <c r="DO4" s="127"/>
+      <c r="DP4" s="128"/>
     </row>
-    <row r="5" spans="1:128" ht="15" customHeight="1">
+    <row r="5" spans="1:200" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>11</v>
       </c>
@@ -4092,7 +4172,7 @@
         <v>44719</v>
       </c>
       <c r="BV5" s="78">
-        <f t="shared" ref="BV5:DB5" si="2">BU5+1</f>
+        <f t="shared" ref="BV5:DA5" si="2">BU5+1</f>
         <v>44720</v>
       </c>
       <c r="BW5" s="78">
@@ -4220,11 +4300,67 @@
         <v>44751</v>
       </c>
       <c r="DB5" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="DB5:DP5" si="3">DA5+1</f>
         <v>44752</v>
       </c>
+      <c r="DC5" s="77">
+        <f t="shared" si="3"/>
+        <v>44753</v>
+      </c>
+      <c r="DD5" s="78">
+        <f t="shared" si="3"/>
+        <v>44754</v>
+      </c>
+      <c r="DE5" s="78">
+        <f t="shared" si="3"/>
+        <v>44755</v>
+      </c>
+      <c r="DF5" s="78">
+        <f t="shared" si="3"/>
+        <v>44756</v>
+      </c>
+      <c r="DG5" s="78">
+        <f t="shared" si="3"/>
+        <v>44757</v>
+      </c>
+      <c r="DH5" s="78">
+        <f t="shared" si="3"/>
+        <v>44758</v>
+      </c>
+      <c r="DI5" s="79">
+        <f t="shared" si="3"/>
+        <v>44759</v>
+      </c>
+      <c r="DJ5" s="77">
+        <f t="shared" si="3"/>
+        <v>44760</v>
+      </c>
+      <c r="DK5" s="78">
+        <f t="shared" si="3"/>
+        <v>44761</v>
+      </c>
+      <c r="DL5" s="78">
+        <f t="shared" si="3"/>
+        <v>44762</v>
+      </c>
+      <c r="DM5" s="78">
+        <f t="shared" si="3"/>
+        <v>44763</v>
+      </c>
+      <c r="DN5" s="78">
+        <f t="shared" si="3"/>
+        <v>44764</v>
+      </c>
+      <c r="DO5" s="78">
+        <f t="shared" si="3"/>
+        <v>44765</v>
+      </c>
+      <c r="DP5" s="79">
+        <f t="shared" si="3"/>
+        <v>44766</v>
+      </c>
     </row>
-    <row r="6" spans="1:128" ht="30" customHeight="1" thickBot="1">
+    <row r="6" spans="1:200" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>12</v>
       </c>
@@ -4248,405 +4384,461 @@
         <v>18</v>
       </c>
       <c r="I6" s="9" t="str">
-        <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
+        <f t="shared" ref="I6:AN6" si="4">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="J6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="K6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>W</v>
       </c>
       <c r="L6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="M6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="N6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="O6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="P6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>M</v>
-      </c>
-      <c r="Q6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="R6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>W</v>
-      </c>
-      <c r="S6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="T6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-      <c r="U6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="V6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="W6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>M</v>
-      </c>
-      <c r="X6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="Y6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>W</v>
-      </c>
-      <c r="Z6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="AA6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-      <c r="AB6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="AC6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="AD6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>M</v>
-      </c>
-      <c r="AE6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="AF6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>W</v>
-      </c>
-      <c r="AG6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="AH6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-      <c r="AI6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="AJ6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="AK6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>M</v>
-      </c>
-      <c r="AL6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="AM6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>W</v>
-      </c>
-      <c r="AN6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="AO6" s="9" t="str">
-        <f t="shared" ref="AO6:BT6" si="4">LEFT(TEXT(AO5,"ddd"),1)</f>
-        <v>F</v>
-      </c>
-      <c r="AP6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AQ6" s="9" t="str">
+      <c r="O6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AR6" s="9" t="str">
+      <c r="P6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AS6" s="9" t="str">
+      <c r="Q6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AT6" s="9" t="str">
+      <c r="R6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="AU6" s="9" t="str">
+      <c r="S6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AV6" s="9" t="str">
+      <c r="T6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="AW6" s="9" t="str">
+      <c r="U6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AX6" s="9" t="str">
+      <c r="V6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AY6" s="9" t="str">
+      <c r="W6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AZ6" s="9" t="str">
+      <c r="X6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="BA6" s="9" t="str">
+      <c r="Y6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="BB6" s="9" t="str">
+      <c r="Z6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="BC6" s="9" t="str">
+      <c r="AA6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="BD6" s="9" t="str">
+      <c r="AB6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="BE6" s="9" t="str">
+      <c r="AC6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="BF6" s="9" t="str">
+      <c r="AD6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="BG6" s="9" t="str">
+      <c r="AE6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="BH6" s="9" t="str">
+      <c r="AF6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="BI6" s="9" t="str">
+      <c r="AG6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="BJ6" s="9" t="str">
+      <c r="AH6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="BK6" s="9" t="str">
+      <c r="AI6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="BL6" s="9" t="str">
+      <c r="AJ6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="BM6" s="9" t="str">
+      <c r="AK6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="BN6" s="9" t="str">
+      <c r="AL6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="BO6" s="9" t="str">
+      <c r="AM6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="BP6" s="9" t="str">
+      <c r="AN6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="BQ6" s="9" t="str">
-        <f t="shared" si="4"/>
+      <c r="AO6" s="9" t="str">
+        <f t="shared" ref="AO6:BT6" si="5">LEFT(TEXT(AO5,"ddd"),1)</f>
         <v>F</v>
       </c>
-      <c r="BR6" s="9" t="str">
-        <f t="shared" si="4"/>
+      <c r="AP6" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="BS6" s="9" t="str">
-        <f t="shared" si="4"/>
+      <c r="AQ6" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="BT6" s="9" t="str">
-        <f t="shared" si="4"/>
+      <c r="AR6" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="BU6" s="9" t="str">
-        <f t="shared" ref="BU6:CZ6" si="5">LEFT(TEXT(BU5,"ddd"),1)</f>
+      <c r="AS6" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="BV6" s="9" t="str">
+      <c r="AT6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="BW6" s="9" t="str">
+      <c r="AU6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="BX6" s="9" t="str">
+      <c r="AV6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="BY6" s="9" t="str">
+      <c r="AW6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="BZ6" s="9" t="str">
+      <c r="AX6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="CA6" s="9" t="str">
+      <c r="AY6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="CB6" s="9" t="str">
+      <c r="AZ6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="CC6" s="9" t="str">
+      <c r="BA6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="CD6" s="9" t="str">
+      <c r="BB6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="CE6" s="9" t="str">
+      <c r="BC6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="CF6" s="9" t="str">
+      <c r="BD6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="CG6" s="9" t="str">
+      <c r="BE6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="CH6" s="9" t="str">
+      <c r="BF6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="CI6" s="9" t="str">
+      <c r="BG6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="CJ6" s="9" t="str">
+      <c r="BH6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="CK6" s="9" t="str">
+      <c r="BI6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="CL6" s="9" t="str">
+      <c r="BJ6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="CM6" s="9" t="str">
+      <c r="BK6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="CN6" s="9" t="str">
+      <c r="BL6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="CO6" s="9" t="str">
+      <c r="BM6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="CP6" s="9" t="str">
+      <c r="BN6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="CQ6" s="9" t="str">
+      <c r="BO6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="CR6" s="9" t="str">
+      <c r="BP6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="CS6" s="9" t="str">
+      <c r="BQ6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="CT6" s="9" t="str">
+      <c r="BR6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="CU6" s="9" t="str">
+      <c r="BS6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="CV6" s="9" t="str">
+      <c r="BT6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="CW6" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="BU6" s="9" t="str">
+        <f t="shared" ref="BU6:CZ6" si="6">LEFT(TEXT(BU5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="CX6" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="BV6" s="9" t="str">
+        <f t="shared" si="6"/>
         <v>W</v>
       </c>
-      <c r="CY6" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="BW6" s="9" t="str">
+        <f t="shared" si="6"/>
         <v>T</v>
       </c>
-      <c r="CZ6" s="9" t="str">
-        <f t="shared" si="5"/>
+      <c r="BX6" s="9" t="str">
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
-      <c r="DA6" s="9" t="str">
-        <f t="shared" ref="DA6:DB6" si="6">LEFT(TEXT(DA5,"ddd"),1)</f>
-        <v>S</v>
-      </c>
-      <c r="DB6" s="9" t="str">
+      <c r="BY6" s="9" t="str">
         <f t="shared" si="6"/>
         <v>S</v>
       </c>
+      <c r="BZ6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+      <c r="CA6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>M</v>
+      </c>
+      <c r="CB6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="CC6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>W</v>
+      </c>
+      <c r="CD6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="CE6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="CF6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+      <c r="CG6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+      <c r="CH6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>M</v>
+      </c>
+      <c r="CI6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="CJ6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>W</v>
+      </c>
+      <c r="CK6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="CL6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="CM6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+      <c r="CN6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+      <c r="CO6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>M</v>
+      </c>
+      <c r="CP6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="CQ6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>W</v>
+      </c>
+      <c r="CR6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="CS6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="CT6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+      <c r="CU6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+      <c r="CV6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>M</v>
+      </c>
+      <c r="CW6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="CX6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>W</v>
+      </c>
+      <c r="CY6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="CZ6" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="DA6" s="9" t="str">
+        <f t="shared" ref="DA6:EF6" si="7">LEFT(TEXT(DA5,"ddd"),1)</f>
+        <v>S</v>
+      </c>
+      <c r="DB6" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+      <c r="DC6" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>M</v>
+      </c>
+      <c r="DD6" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>T</v>
+      </c>
+      <c r="DE6" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+      <c r="DF6" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>T</v>
+      </c>
+      <c r="DG6" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>F</v>
+      </c>
+      <c r="DH6" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+      <c r="DI6" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+      <c r="DJ6" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>M</v>
+      </c>
+      <c r="DK6" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>T</v>
+      </c>
+      <c r="DL6" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+      <c r="DM6" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>T</v>
+      </c>
+      <c r="DN6" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>F</v>
+      </c>
+      <c r="DO6" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
+      <c r="DP6" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>S</v>
+      </c>
     </row>
-    <row r="7" spans="1:128" ht="30" hidden="1" customHeight="1" thickBot="1">
+    <row r="7" spans="1:200" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="31"/>
       <c r="H7" t="str">
-        <f t="shared" ref="H7:H47" si="7">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H7:H47" si="8">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I7" s="17"/>
@@ -4747,8 +4939,22 @@
       <c r="CZ7" s="17"/>
       <c r="DA7" s="17"/>
       <c r="DB7" s="17"/>
+      <c r="DC7" s="17"/>
+      <c r="DD7" s="17"/>
+      <c r="DE7" s="17"/>
+      <c r="DF7" s="17"/>
+      <c r="DG7" s="17"/>
+      <c r="DH7" s="17"/>
+      <c r="DI7" s="17"/>
+      <c r="DJ7" s="17"/>
+      <c r="DK7" s="17"/>
+      <c r="DL7" s="17"/>
+      <c r="DM7" s="17"/>
+      <c r="DN7" s="17"/>
+      <c r="DO7" s="17"/>
+      <c r="DP7" s="17"/>
     </row>
-    <row r="8" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="8" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
@@ -4761,7 +4967,7 @@
       <c r="F8" s="81"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I8" s="17"/>
@@ -4862,8 +5068,22 @@
       <c r="CZ8" s="17"/>
       <c r="DA8" s="17"/>
       <c r="DB8" s="17"/>
+      <c r="DC8" s="17"/>
+      <c r="DD8" s="17"/>
+      <c r="DE8" s="17"/>
+      <c r="DF8" s="17"/>
+      <c r="DG8" s="17"/>
+      <c r="DH8" s="17"/>
+      <c r="DI8" s="17"/>
+      <c r="DJ8" s="17"/>
+      <c r="DK8" s="17"/>
+      <c r="DL8" s="17"/>
+      <c r="DM8" s="17"/>
+      <c r="DN8" s="17"/>
+      <c r="DO8" s="17"/>
+      <c r="DP8" s="17"/>
     </row>
-    <row r="9" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="9" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>22</v>
       </c>
@@ -4884,7 +5104,7 @@
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="I9" s="17"/>
@@ -4985,8 +5205,22 @@
       <c r="CZ9" s="17"/>
       <c r="DA9" s="17"/>
       <c r="DB9" s="17"/>
+      <c r="DC9" s="17"/>
+      <c r="DD9" s="17"/>
+      <c r="DE9" s="17"/>
+      <c r="DF9" s="17"/>
+      <c r="DG9" s="17"/>
+      <c r="DH9" s="17"/>
+      <c r="DI9" s="17"/>
+      <c r="DJ9" s="17"/>
+      <c r="DK9" s="17"/>
+      <c r="DL9" s="17"/>
+      <c r="DM9" s="17"/>
+      <c r="DN9" s="17"/>
+      <c r="DO9" s="17"/>
+      <c r="DP9" s="17"/>
     </row>
-    <row r="10" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="10" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="83" t="s">
         <v>22</v>
       </c>
@@ -5007,7 +5241,7 @@
       </c>
       <c r="G10" s="88"/>
       <c r="H10" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I10" s="89"/>
@@ -5108,20 +5342,20 @@
       <c r="CZ10" s="89"/>
       <c r="DA10" s="89"/>
       <c r="DB10" s="89"/>
-      <c r="DC10" s="90"/>
-      <c r="DD10" s="90"/>
-      <c r="DE10" s="90"/>
-      <c r="DF10" s="90"/>
-      <c r="DG10" s="90"/>
-      <c r="DH10" s="90"/>
-      <c r="DI10" s="90"/>
-      <c r="DJ10" s="90"/>
-      <c r="DK10" s="90"/>
-      <c r="DL10" s="90"/>
-      <c r="DM10" s="90"/>
-      <c r="DN10" s="90"/>
-      <c r="DO10" s="90"/>
-      <c r="DP10" s="90"/>
+      <c r="DC10" s="89"/>
+      <c r="DD10" s="89"/>
+      <c r="DE10" s="89"/>
+      <c r="DF10" s="89"/>
+      <c r="DG10" s="89"/>
+      <c r="DH10" s="89"/>
+      <c r="DI10" s="89"/>
+      <c r="DJ10" s="89"/>
+      <c r="DK10" s="89"/>
+      <c r="DL10" s="89"/>
+      <c r="DM10" s="89"/>
+      <c r="DN10" s="89"/>
+      <c r="DO10" s="89"/>
+      <c r="DP10" s="89"/>
       <c r="DQ10" s="90"/>
       <c r="DR10" s="90"/>
       <c r="DS10" s="90"/>
@@ -5130,8 +5364,80 @@
       <c r="DV10" s="90"/>
       <c r="DW10" s="90"/>
       <c r="DX10" s="90"/>
+      <c r="DY10" s="90"/>
+      <c r="DZ10" s="90"/>
+      <c r="EA10" s="90"/>
+      <c r="EB10" s="90"/>
+      <c r="EC10" s="90"/>
+      <c r="ED10" s="90"/>
+      <c r="EE10" s="90"/>
+      <c r="EF10" s="90"/>
+      <c r="EG10" s="90"/>
+      <c r="EH10" s="90"/>
+      <c r="EI10" s="90"/>
+      <c r="EJ10" s="90"/>
+      <c r="EK10" s="90"/>
+      <c r="EL10" s="90"/>
+      <c r="EM10" s="90"/>
+      <c r="EN10" s="90"/>
+      <c r="EO10" s="90"/>
+      <c r="EP10" s="90"/>
+      <c r="EQ10" s="90"/>
+      <c r="ER10" s="90"/>
+      <c r="ES10" s="90"/>
+      <c r="ET10" s="90"/>
+      <c r="EU10" s="90"/>
+      <c r="EV10" s="90"/>
+      <c r="EW10" s="90"/>
+      <c r="EX10" s="90"/>
+      <c r="EY10" s="90"/>
+      <c r="EZ10" s="90"/>
+      <c r="FA10" s="90"/>
+      <c r="FB10" s="90"/>
+      <c r="FC10" s="90"/>
+      <c r="FD10" s="90"/>
+      <c r="FE10" s="90"/>
+      <c r="FF10" s="90"/>
+      <c r="FG10" s="90"/>
+      <c r="FH10" s="90"/>
+      <c r="FI10" s="90"/>
+      <c r="FJ10" s="90"/>
+      <c r="FK10" s="90"/>
+      <c r="FL10" s="90"/>
+      <c r="FM10" s="90"/>
+      <c r="FN10" s="90"/>
+      <c r="FO10" s="90"/>
+      <c r="FP10" s="90"/>
+      <c r="FQ10" s="90"/>
+      <c r="FR10" s="90"/>
+      <c r="FS10" s="90"/>
+      <c r="FT10" s="90"/>
+      <c r="FU10" s="90"/>
+      <c r="FV10" s="90"/>
+      <c r="FW10" s="90"/>
+      <c r="FX10" s="90"/>
+      <c r="FY10" s="90"/>
+      <c r="FZ10" s="90"/>
+      <c r="GA10" s="90"/>
+      <c r="GB10" s="90"/>
+      <c r="GC10" s="90"/>
+      <c r="GD10" s="90"/>
+      <c r="GE10" s="90"/>
+      <c r="GF10" s="90"/>
+      <c r="GG10" s="90"/>
+      <c r="GH10" s="90"/>
+      <c r="GI10" s="90"/>
+      <c r="GJ10" s="90"/>
+      <c r="GK10" s="90"/>
+      <c r="GL10" s="90"/>
+      <c r="GM10" s="90"/>
+      <c r="GN10" s="90"/>
+      <c r="GO10" s="90"/>
+      <c r="GP10" s="90"/>
+      <c r="GQ10" s="90"/>
+      <c r="GR10" s="90"/>
     </row>
-    <row r="11" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="11" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="83" t="s">
         <v>22</v>
       </c>
@@ -5152,7 +5458,7 @@
       </c>
       <c r="G11" s="88"/>
       <c r="H11" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I11" s="89"/>
@@ -5253,20 +5559,20 @@
       <c r="CZ11" s="89"/>
       <c r="DA11" s="89"/>
       <c r="DB11" s="89"/>
-      <c r="DC11" s="90"/>
-      <c r="DD11" s="90"/>
-      <c r="DE11" s="90"/>
-      <c r="DF11" s="90"/>
-      <c r="DG11" s="90"/>
-      <c r="DH11" s="90"/>
-      <c r="DI11" s="90"/>
-      <c r="DJ11" s="90"/>
-      <c r="DK11" s="90"/>
-      <c r="DL11" s="90"/>
-      <c r="DM11" s="90"/>
-      <c r="DN11" s="90"/>
-      <c r="DO11" s="90"/>
-      <c r="DP11" s="90"/>
+      <c r="DC11" s="89"/>
+      <c r="DD11" s="89"/>
+      <c r="DE11" s="89"/>
+      <c r="DF11" s="89"/>
+      <c r="DG11" s="89"/>
+      <c r="DH11" s="89"/>
+      <c r="DI11" s="89"/>
+      <c r="DJ11" s="89"/>
+      <c r="DK11" s="89"/>
+      <c r="DL11" s="89"/>
+      <c r="DM11" s="89"/>
+      <c r="DN11" s="89"/>
+      <c r="DO11" s="89"/>
+      <c r="DP11" s="89"/>
       <c r="DQ11" s="90"/>
       <c r="DR11" s="90"/>
       <c r="DS11" s="90"/>
@@ -5275,8 +5581,80 @@
       <c r="DV11" s="90"/>
       <c r="DW11" s="90"/>
       <c r="DX11" s="90"/>
+      <c r="DY11" s="90"/>
+      <c r="DZ11" s="90"/>
+      <c r="EA11" s="90"/>
+      <c r="EB11" s="90"/>
+      <c r="EC11" s="90"/>
+      <c r="ED11" s="90"/>
+      <c r="EE11" s="90"/>
+      <c r="EF11" s="90"/>
+      <c r="EG11" s="90"/>
+      <c r="EH11" s="90"/>
+      <c r="EI11" s="90"/>
+      <c r="EJ11" s="90"/>
+      <c r="EK11" s="90"/>
+      <c r="EL11" s="90"/>
+      <c r="EM11" s="90"/>
+      <c r="EN11" s="90"/>
+      <c r="EO11" s="90"/>
+      <c r="EP11" s="90"/>
+      <c r="EQ11" s="90"/>
+      <c r="ER11" s="90"/>
+      <c r="ES11" s="90"/>
+      <c r="ET11" s="90"/>
+      <c r="EU11" s="90"/>
+      <c r="EV11" s="90"/>
+      <c r="EW11" s="90"/>
+      <c r="EX11" s="90"/>
+      <c r="EY11" s="90"/>
+      <c r="EZ11" s="90"/>
+      <c r="FA11" s="90"/>
+      <c r="FB11" s="90"/>
+      <c r="FC11" s="90"/>
+      <c r="FD11" s="90"/>
+      <c r="FE11" s="90"/>
+      <c r="FF11" s="90"/>
+      <c r="FG11" s="90"/>
+      <c r="FH11" s="90"/>
+      <c r="FI11" s="90"/>
+      <c r="FJ11" s="90"/>
+      <c r="FK11" s="90"/>
+      <c r="FL11" s="90"/>
+      <c r="FM11" s="90"/>
+      <c r="FN11" s="90"/>
+      <c r="FO11" s="90"/>
+      <c r="FP11" s="90"/>
+      <c r="FQ11" s="90"/>
+      <c r="FR11" s="90"/>
+      <c r="FS11" s="90"/>
+      <c r="FT11" s="90"/>
+      <c r="FU11" s="90"/>
+      <c r="FV11" s="90"/>
+      <c r="FW11" s="90"/>
+      <c r="FX11" s="90"/>
+      <c r="FY11" s="90"/>
+      <c r="FZ11" s="90"/>
+      <c r="GA11" s="90"/>
+      <c r="GB11" s="90"/>
+      <c r="GC11" s="90"/>
+      <c r="GD11" s="90"/>
+      <c r="GE11" s="90"/>
+      <c r="GF11" s="90"/>
+      <c r="GG11" s="90"/>
+      <c r="GH11" s="90"/>
+      <c r="GI11" s="90"/>
+      <c r="GJ11" s="90"/>
+      <c r="GK11" s="90"/>
+      <c r="GL11" s="90"/>
+      <c r="GM11" s="90"/>
+      <c r="GN11" s="90"/>
+      <c r="GO11" s="90"/>
+      <c r="GP11" s="90"/>
+      <c r="GQ11" s="90"/>
+      <c r="GR11" s="90"/>
     </row>
-    <row r="12" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="12" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="83" t="s">
         <v>22</v>
       </c>
@@ -5297,7 +5675,7 @@
       </c>
       <c r="G12" s="88"/>
       <c r="H12" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I12" s="89"/>
@@ -5398,20 +5776,20 @@
       <c r="CZ12" s="89"/>
       <c r="DA12" s="89"/>
       <c r="DB12" s="89"/>
-      <c r="DC12" s="90"/>
-      <c r="DD12" s="90"/>
-      <c r="DE12" s="90"/>
-      <c r="DF12" s="90"/>
-      <c r="DG12" s="90"/>
-      <c r="DH12" s="90"/>
-      <c r="DI12" s="90"/>
-      <c r="DJ12" s="90"/>
-      <c r="DK12" s="90"/>
-      <c r="DL12" s="90"/>
-      <c r="DM12" s="90"/>
-      <c r="DN12" s="90"/>
-      <c r="DO12" s="90"/>
-      <c r="DP12" s="90"/>
+      <c r="DC12" s="89"/>
+      <c r="DD12" s="89"/>
+      <c r="DE12" s="89"/>
+      <c r="DF12" s="89"/>
+      <c r="DG12" s="89"/>
+      <c r="DH12" s="89"/>
+      <c r="DI12" s="89"/>
+      <c r="DJ12" s="89"/>
+      <c r="DK12" s="89"/>
+      <c r="DL12" s="89"/>
+      <c r="DM12" s="89"/>
+      <c r="DN12" s="89"/>
+      <c r="DO12" s="89"/>
+      <c r="DP12" s="89"/>
       <c r="DQ12" s="90"/>
       <c r="DR12" s="90"/>
       <c r="DS12" s="90"/>
@@ -5420,8 +5798,80 @@
       <c r="DV12" s="90"/>
       <c r="DW12" s="90"/>
       <c r="DX12" s="90"/>
+      <c r="DY12" s="90"/>
+      <c r="DZ12" s="90"/>
+      <c r="EA12" s="90"/>
+      <c r="EB12" s="90"/>
+      <c r="EC12" s="90"/>
+      <c r="ED12" s="90"/>
+      <c r="EE12" s="90"/>
+      <c r="EF12" s="90"/>
+      <c r="EG12" s="90"/>
+      <c r="EH12" s="90"/>
+      <c r="EI12" s="90"/>
+      <c r="EJ12" s="90"/>
+      <c r="EK12" s="90"/>
+      <c r="EL12" s="90"/>
+      <c r="EM12" s="90"/>
+      <c r="EN12" s="90"/>
+      <c r="EO12" s="90"/>
+      <c r="EP12" s="90"/>
+      <c r="EQ12" s="90"/>
+      <c r="ER12" s="90"/>
+      <c r="ES12" s="90"/>
+      <c r="ET12" s="90"/>
+      <c r="EU12" s="90"/>
+      <c r="EV12" s="90"/>
+      <c r="EW12" s="90"/>
+      <c r="EX12" s="90"/>
+      <c r="EY12" s="90"/>
+      <c r="EZ12" s="90"/>
+      <c r="FA12" s="90"/>
+      <c r="FB12" s="90"/>
+      <c r="FC12" s="90"/>
+      <c r="FD12" s="90"/>
+      <c r="FE12" s="90"/>
+      <c r="FF12" s="90"/>
+      <c r="FG12" s="90"/>
+      <c r="FH12" s="90"/>
+      <c r="FI12" s="90"/>
+      <c r="FJ12" s="90"/>
+      <c r="FK12" s="90"/>
+      <c r="FL12" s="90"/>
+      <c r="FM12" s="90"/>
+      <c r="FN12" s="90"/>
+      <c r="FO12" s="90"/>
+      <c r="FP12" s="90"/>
+      <c r="FQ12" s="90"/>
+      <c r="FR12" s="90"/>
+      <c r="FS12" s="90"/>
+      <c r="FT12" s="90"/>
+      <c r="FU12" s="90"/>
+      <c r="FV12" s="90"/>
+      <c r="FW12" s="90"/>
+      <c r="FX12" s="90"/>
+      <c r="FY12" s="90"/>
+      <c r="FZ12" s="90"/>
+      <c r="GA12" s="90"/>
+      <c r="GB12" s="90"/>
+      <c r="GC12" s="90"/>
+      <c r="GD12" s="90"/>
+      <c r="GE12" s="90"/>
+      <c r="GF12" s="90"/>
+      <c r="GG12" s="90"/>
+      <c r="GH12" s="90"/>
+      <c r="GI12" s="90"/>
+      <c r="GJ12" s="90"/>
+      <c r="GK12" s="90"/>
+      <c r="GL12" s="90"/>
+      <c r="GM12" s="90"/>
+      <c r="GN12" s="90"/>
+      <c r="GO12" s="90"/>
+      <c r="GP12" s="90"/>
+      <c r="GQ12" s="90"/>
+      <c r="GR12" s="90"/>
     </row>
-    <row r="13" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="13" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="83" t="s">
         <v>22</v>
       </c>
@@ -5442,7 +5892,7 @@
       </c>
       <c r="G13" s="88"/>
       <c r="H13" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I13" s="89"/>
@@ -5543,20 +5993,20 @@
       <c r="CZ13" s="89"/>
       <c r="DA13" s="89"/>
       <c r="DB13" s="89"/>
-      <c r="DC13" s="90"/>
-      <c r="DD13" s="90"/>
-      <c r="DE13" s="90"/>
-      <c r="DF13" s="90"/>
-      <c r="DG13" s="90"/>
-      <c r="DH13" s="90"/>
-      <c r="DI13" s="90"/>
-      <c r="DJ13" s="90"/>
-      <c r="DK13" s="90"/>
-      <c r="DL13" s="90"/>
-      <c r="DM13" s="90"/>
-      <c r="DN13" s="90"/>
-      <c r="DO13" s="90"/>
-      <c r="DP13" s="90"/>
+      <c r="DC13" s="89"/>
+      <c r="DD13" s="89"/>
+      <c r="DE13" s="89"/>
+      <c r="DF13" s="89"/>
+      <c r="DG13" s="89"/>
+      <c r="DH13" s="89"/>
+      <c r="DI13" s="89"/>
+      <c r="DJ13" s="89"/>
+      <c r="DK13" s="89"/>
+      <c r="DL13" s="89"/>
+      <c r="DM13" s="89"/>
+      <c r="DN13" s="89"/>
+      <c r="DO13" s="89"/>
+      <c r="DP13" s="89"/>
       <c r="DQ13" s="90"/>
       <c r="DR13" s="90"/>
       <c r="DS13" s="90"/>
@@ -5565,8 +6015,80 @@
       <c r="DV13" s="90"/>
       <c r="DW13" s="90"/>
       <c r="DX13" s="90"/>
+      <c r="DY13" s="90"/>
+      <c r="DZ13" s="90"/>
+      <c r="EA13" s="90"/>
+      <c r="EB13" s="90"/>
+      <c r="EC13" s="90"/>
+      <c r="ED13" s="90"/>
+      <c r="EE13" s="90"/>
+      <c r="EF13" s="90"/>
+      <c r="EG13" s="90"/>
+      <c r="EH13" s="90"/>
+      <c r="EI13" s="90"/>
+      <c r="EJ13" s="90"/>
+      <c r="EK13" s="90"/>
+      <c r="EL13" s="90"/>
+      <c r="EM13" s="90"/>
+      <c r="EN13" s="90"/>
+      <c r="EO13" s="90"/>
+      <c r="EP13" s="90"/>
+      <c r="EQ13" s="90"/>
+      <c r="ER13" s="90"/>
+      <c r="ES13" s="90"/>
+      <c r="ET13" s="90"/>
+      <c r="EU13" s="90"/>
+      <c r="EV13" s="90"/>
+      <c r="EW13" s="90"/>
+      <c r="EX13" s="90"/>
+      <c r="EY13" s="90"/>
+      <c r="EZ13" s="90"/>
+      <c r="FA13" s="90"/>
+      <c r="FB13" s="90"/>
+      <c r="FC13" s="90"/>
+      <c r="FD13" s="90"/>
+      <c r="FE13" s="90"/>
+      <c r="FF13" s="90"/>
+      <c r="FG13" s="90"/>
+      <c r="FH13" s="90"/>
+      <c r="FI13" s="90"/>
+      <c r="FJ13" s="90"/>
+      <c r="FK13" s="90"/>
+      <c r="FL13" s="90"/>
+      <c r="FM13" s="90"/>
+      <c r="FN13" s="90"/>
+      <c r="FO13" s="90"/>
+      <c r="FP13" s="90"/>
+      <c r="FQ13" s="90"/>
+      <c r="FR13" s="90"/>
+      <c r="FS13" s="90"/>
+      <c r="FT13" s="90"/>
+      <c r="FU13" s="90"/>
+      <c r="FV13" s="90"/>
+      <c r="FW13" s="90"/>
+      <c r="FX13" s="90"/>
+      <c r="FY13" s="90"/>
+      <c r="FZ13" s="90"/>
+      <c r="GA13" s="90"/>
+      <c r="GB13" s="90"/>
+      <c r="GC13" s="90"/>
+      <c r="GD13" s="90"/>
+      <c r="GE13" s="90"/>
+      <c r="GF13" s="90"/>
+      <c r="GG13" s="90"/>
+      <c r="GH13" s="90"/>
+      <c r="GI13" s="90"/>
+      <c r="GJ13" s="90"/>
+      <c r="GK13" s="90"/>
+      <c r="GL13" s="90"/>
+      <c r="GM13" s="90"/>
+      <c r="GN13" s="90"/>
+      <c r="GO13" s="90"/>
+      <c r="GP13" s="90"/>
+      <c r="GQ13" s="90"/>
+      <c r="GR13" s="90"/>
     </row>
-    <row r="14" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="14" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="83" t="s">
         <v>22</v>
       </c>
@@ -5587,7 +6109,7 @@
       </c>
       <c r="G14" s="88"/>
       <c r="H14" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I14" s="89"/>
@@ -5688,20 +6210,20 @@
       <c r="CZ14" s="89"/>
       <c r="DA14" s="89"/>
       <c r="DB14" s="89"/>
-      <c r="DC14" s="90"/>
-      <c r="DD14" s="90"/>
-      <c r="DE14" s="90"/>
-      <c r="DF14" s="90"/>
-      <c r="DG14" s="90"/>
-      <c r="DH14" s="90"/>
-      <c r="DI14" s="90"/>
-      <c r="DJ14" s="90"/>
-      <c r="DK14" s="90"/>
-      <c r="DL14" s="90"/>
-      <c r="DM14" s="90"/>
-      <c r="DN14" s="90"/>
-      <c r="DO14" s="90"/>
-      <c r="DP14" s="90"/>
+      <c r="DC14" s="89"/>
+      <c r="DD14" s="89"/>
+      <c r="DE14" s="89"/>
+      <c r="DF14" s="89"/>
+      <c r="DG14" s="89"/>
+      <c r="DH14" s="89"/>
+      <c r="DI14" s="89"/>
+      <c r="DJ14" s="89"/>
+      <c r="DK14" s="89"/>
+      <c r="DL14" s="89"/>
+      <c r="DM14" s="89"/>
+      <c r="DN14" s="89"/>
+      <c r="DO14" s="89"/>
+      <c r="DP14" s="89"/>
       <c r="DQ14" s="90"/>
       <c r="DR14" s="90"/>
       <c r="DS14" s="90"/>
@@ -5710,8 +6232,80 @@
       <c r="DV14" s="90"/>
       <c r="DW14" s="90"/>
       <c r="DX14" s="90"/>
+      <c r="DY14" s="90"/>
+      <c r="DZ14" s="90"/>
+      <c r="EA14" s="90"/>
+      <c r="EB14" s="90"/>
+      <c r="EC14" s="90"/>
+      <c r="ED14" s="90"/>
+      <c r="EE14" s="90"/>
+      <c r="EF14" s="90"/>
+      <c r="EG14" s="90"/>
+      <c r="EH14" s="90"/>
+      <c r="EI14" s="90"/>
+      <c r="EJ14" s="90"/>
+      <c r="EK14" s="90"/>
+      <c r="EL14" s="90"/>
+      <c r="EM14" s="90"/>
+      <c r="EN14" s="90"/>
+      <c r="EO14" s="90"/>
+      <c r="EP14" s="90"/>
+      <c r="EQ14" s="90"/>
+      <c r="ER14" s="90"/>
+      <c r="ES14" s="90"/>
+      <c r="ET14" s="90"/>
+      <c r="EU14" s="90"/>
+      <c r="EV14" s="90"/>
+      <c r="EW14" s="90"/>
+      <c r="EX14" s="90"/>
+      <c r="EY14" s="90"/>
+      <c r="EZ14" s="90"/>
+      <c r="FA14" s="90"/>
+      <c r="FB14" s="90"/>
+      <c r="FC14" s="90"/>
+      <c r="FD14" s="90"/>
+      <c r="FE14" s="90"/>
+      <c r="FF14" s="90"/>
+      <c r="FG14" s="90"/>
+      <c r="FH14" s="90"/>
+      <c r="FI14" s="90"/>
+      <c r="FJ14" s="90"/>
+      <c r="FK14" s="90"/>
+      <c r="FL14" s="90"/>
+      <c r="FM14" s="90"/>
+      <c r="FN14" s="90"/>
+      <c r="FO14" s="90"/>
+      <c r="FP14" s="90"/>
+      <c r="FQ14" s="90"/>
+      <c r="FR14" s="90"/>
+      <c r="FS14" s="90"/>
+      <c r="FT14" s="90"/>
+      <c r="FU14" s="90"/>
+      <c r="FV14" s="90"/>
+      <c r="FW14" s="90"/>
+      <c r="FX14" s="90"/>
+      <c r="FY14" s="90"/>
+      <c r="FZ14" s="90"/>
+      <c r="GA14" s="90"/>
+      <c r="GB14" s="90"/>
+      <c r="GC14" s="90"/>
+      <c r="GD14" s="90"/>
+      <c r="GE14" s="90"/>
+      <c r="GF14" s="90"/>
+      <c r="GG14" s="90"/>
+      <c r="GH14" s="90"/>
+      <c r="GI14" s="90"/>
+      <c r="GJ14" s="90"/>
+      <c r="GK14" s="90"/>
+      <c r="GL14" s="90"/>
+      <c r="GM14" s="90"/>
+      <c r="GN14" s="90"/>
+      <c r="GO14" s="90"/>
+      <c r="GP14" s="90"/>
+      <c r="GQ14" s="90"/>
+      <c r="GR14" s="90"/>
     </row>
-    <row r="15" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="15" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>28</v>
       </c>
@@ -5724,7 +6318,7 @@
       <c r="F15" s="92"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I15" s="17"/>
@@ -5825,8 +6419,22 @@
       <c r="CZ15" s="17"/>
       <c r="DA15" s="17"/>
       <c r="DB15" s="17"/>
+      <c r="DC15" s="17"/>
+      <c r="DD15" s="17"/>
+      <c r="DE15" s="17"/>
+      <c r="DF15" s="17"/>
+      <c r="DG15" s="17"/>
+      <c r="DH15" s="17"/>
+      <c r="DI15" s="17"/>
+      <c r="DJ15" s="17"/>
+      <c r="DK15" s="17"/>
+      <c r="DL15" s="17"/>
+      <c r="DM15" s="17"/>
+      <c r="DN15" s="17"/>
+      <c r="DO15" s="17"/>
+      <c r="DP15" s="17"/>
     </row>
-    <row r="16" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="16" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="44" t="s">
         <v>29</v>
@@ -5843,7 +6451,7 @@
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I16" s="17"/>
@@ -5944,8 +6552,22 @@
       <c r="CZ16" s="17"/>
       <c r="DA16" s="17"/>
       <c r="DB16" s="17"/>
+      <c r="DC16" s="17"/>
+      <c r="DD16" s="17"/>
+      <c r="DE16" s="17"/>
+      <c r="DF16" s="17"/>
+      <c r="DG16" s="17"/>
+      <c r="DH16" s="17"/>
+      <c r="DI16" s="17"/>
+      <c r="DJ16" s="17"/>
+      <c r="DK16" s="17"/>
+      <c r="DL16" s="17"/>
+      <c r="DM16" s="17"/>
+      <c r="DN16" s="17"/>
+      <c r="DO16" s="17"/>
+      <c r="DP16" s="17"/>
     </row>
-    <row r="17" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="17" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94"/>
       <c r="B17" s="95" t="s">
         <v>30</v>
@@ -5953,7 +6575,9 @@
       <c r="C17" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="97"/>
+      <c r="D17" s="97">
+        <v>1</v>
+      </c>
       <c r="E17" s="98">
         <v>44684</v>
       </c>
@@ -5962,7 +6586,7 @@
       </c>
       <c r="G17" s="88"/>
       <c r="H17" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I17" s="89"/>
@@ -6063,20 +6687,20 @@
       <c r="CZ17" s="89"/>
       <c r="DA17" s="89"/>
       <c r="DB17" s="89"/>
-      <c r="DC17" s="90"/>
-      <c r="DD17" s="90"/>
-      <c r="DE17" s="90"/>
-      <c r="DF17" s="90"/>
-      <c r="DG17" s="90"/>
-      <c r="DH17" s="90"/>
-      <c r="DI17" s="90"/>
-      <c r="DJ17" s="90"/>
-      <c r="DK17" s="90"/>
-      <c r="DL17" s="90"/>
-      <c r="DM17" s="90"/>
-      <c r="DN17" s="90"/>
-      <c r="DO17" s="90"/>
-      <c r="DP17" s="90"/>
+      <c r="DC17" s="89"/>
+      <c r="DD17" s="89"/>
+      <c r="DE17" s="89"/>
+      <c r="DF17" s="89"/>
+      <c r="DG17" s="89"/>
+      <c r="DH17" s="89"/>
+      <c r="DI17" s="89"/>
+      <c r="DJ17" s="89"/>
+      <c r="DK17" s="89"/>
+      <c r="DL17" s="89"/>
+      <c r="DM17" s="89"/>
+      <c r="DN17" s="89"/>
+      <c r="DO17" s="89"/>
+      <c r="DP17" s="89"/>
       <c r="DQ17" s="90"/>
       <c r="DR17" s="90"/>
       <c r="DS17" s="90"/>
@@ -6085,8 +6709,80 @@
       <c r="DV17" s="90"/>
       <c r="DW17" s="90"/>
       <c r="DX17" s="90"/>
+      <c r="DY17" s="90"/>
+      <c r="DZ17" s="90"/>
+      <c r="EA17" s="90"/>
+      <c r="EB17" s="90"/>
+      <c r="EC17" s="90"/>
+      <c r="ED17" s="90"/>
+      <c r="EE17" s="90"/>
+      <c r="EF17" s="90"/>
+      <c r="EG17" s="90"/>
+      <c r="EH17" s="90"/>
+      <c r="EI17" s="90"/>
+      <c r="EJ17" s="90"/>
+      <c r="EK17" s="90"/>
+      <c r="EL17" s="90"/>
+      <c r="EM17" s="90"/>
+      <c r="EN17" s="90"/>
+      <c r="EO17" s="90"/>
+      <c r="EP17" s="90"/>
+      <c r="EQ17" s="90"/>
+      <c r="ER17" s="90"/>
+      <c r="ES17" s="90"/>
+      <c r="ET17" s="90"/>
+      <c r="EU17" s="90"/>
+      <c r="EV17" s="90"/>
+      <c r="EW17" s="90"/>
+      <c r="EX17" s="90"/>
+      <c r="EY17" s="90"/>
+      <c r="EZ17" s="90"/>
+      <c r="FA17" s="90"/>
+      <c r="FB17" s="90"/>
+      <c r="FC17" s="90"/>
+      <c r="FD17" s="90"/>
+      <c r="FE17" s="90"/>
+      <c r="FF17" s="90"/>
+      <c r="FG17" s="90"/>
+      <c r="FH17" s="90"/>
+      <c r="FI17" s="90"/>
+      <c r="FJ17" s="90"/>
+      <c r="FK17" s="90"/>
+      <c r="FL17" s="90"/>
+      <c r="FM17" s="90"/>
+      <c r="FN17" s="90"/>
+      <c r="FO17" s="90"/>
+      <c r="FP17" s="90"/>
+      <c r="FQ17" s="90"/>
+      <c r="FR17" s="90"/>
+      <c r="FS17" s="90"/>
+      <c r="FT17" s="90"/>
+      <c r="FU17" s="90"/>
+      <c r="FV17" s="90"/>
+      <c r="FW17" s="90"/>
+      <c r="FX17" s="90"/>
+      <c r="FY17" s="90"/>
+      <c r="FZ17" s="90"/>
+      <c r="GA17" s="90"/>
+      <c r="GB17" s="90"/>
+      <c r="GC17" s="90"/>
+      <c r="GD17" s="90"/>
+      <c r="GE17" s="90"/>
+      <c r="GF17" s="90"/>
+      <c r="GG17" s="90"/>
+      <c r="GH17" s="90"/>
+      <c r="GI17" s="90"/>
+      <c r="GJ17" s="90"/>
+      <c r="GK17" s="90"/>
+      <c r="GL17" s="90"/>
+      <c r="GM17" s="90"/>
+      <c r="GN17" s="90"/>
+      <c r="GO17" s="90"/>
+      <c r="GP17" s="90"/>
+      <c r="GQ17" s="90"/>
+      <c r="GR17" s="90"/>
     </row>
-    <row r="18" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="18" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="94"/>
       <c r="B18" s="95" t="s">
         <v>31</v>
@@ -6094,7 +6790,9 @@
       <c r="C18" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="97"/>
+      <c r="D18" s="97">
+        <v>1</v>
+      </c>
       <c r="E18" s="98">
         <v>44684</v>
       </c>
@@ -6103,7 +6801,7 @@
       </c>
       <c r="G18" s="88"/>
       <c r="H18" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I18" s="89"/>
@@ -6204,20 +6902,20 @@
       <c r="CZ18" s="89"/>
       <c r="DA18" s="89"/>
       <c r="DB18" s="89"/>
-      <c r="DC18" s="90"/>
-      <c r="DD18" s="90"/>
-      <c r="DE18" s="90"/>
-      <c r="DF18" s="90"/>
-      <c r="DG18" s="90"/>
-      <c r="DH18" s="90"/>
-      <c r="DI18" s="90"/>
-      <c r="DJ18" s="90"/>
-      <c r="DK18" s="90"/>
-      <c r="DL18" s="90"/>
-      <c r="DM18" s="90"/>
-      <c r="DN18" s="90"/>
-      <c r="DO18" s="90"/>
-      <c r="DP18" s="90"/>
+      <c r="DC18" s="89"/>
+      <c r="DD18" s="89"/>
+      <c r="DE18" s="89"/>
+      <c r="DF18" s="89"/>
+      <c r="DG18" s="89"/>
+      <c r="DH18" s="89"/>
+      <c r="DI18" s="89"/>
+      <c r="DJ18" s="89"/>
+      <c r="DK18" s="89"/>
+      <c r="DL18" s="89"/>
+      <c r="DM18" s="89"/>
+      <c r="DN18" s="89"/>
+      <c r="DO18" s="89"/>
+      <c r="DP18" s="89"/>
       <c r="DQ18" s="90"/>
       <c r="DR18" s="90"/>
       <c r="DS18" s="90"/>
@@ -6226,8 +6924,80 @@
       <c r="DV18" s="90"/>
       <c r="DW18" s="90"/>
       <c r="DX18" s="90"/>
+      <c r="DY18" s="90"/>
+      <c r="DZ18" s="90"/>
+      <c r="EA18" s="90"/>
+      <c r="EB18" s="90"/>
+      <c r="EC18" s="90"/>
+      <c r="ED18" s="90"/>
+      <c r="EE18" s="90"/>
+      <c r="EF18" s="90"/>
+      <c r="EG18" s="90"/>
+      <c r="EH18" s="90"/>
+      <c r="EI18" s="90"/>
+      <c r="EJ18" s="90"/>
+      <c r="EK18" s="90"/>
+      <c r="EL18" s="90"/>
+      <c r="EM18" s="90"/>
+      <c r="EN18" s="90"/>
+      <c r="EO18" s="90"/>
+      <c r="EP18" s="90"/>
+      <c r="EQ18" s="90"/>
+      <c r="ER18" s="90"/>
+      <c r="ES18" s="90"/>
+      <c r="ET18" s="90"/>
+      <c r="EU18" s="90"/>
+      <c r="EV18" s="90"/>
+      <c r="EW18" s="90"/>
+      <c r="EX18" s="90"/>
+      <c r="EY18" s="90"/>
+      <c r="EZ18" s="90"/>
+      <c r="FA18" s="90"/>
+      <c r="FB18" s="90"/>
+      <c r="FC18" s="90"/>
+      <c r="FD18" s="90"/>
+      <c r="FE18" s="90"/>
+      <c r="FF18" s="90"/>
+      <c r="FG18" s="90"/>
+      <c r="FH18" s="90"/>
+      <c r="FI18" s="90"/>
+      <c r="FJ18" s="90"/>
+      <c r="FK18" s="90"/>
+      <c r="FL18" s="90"/>
+      <c r="FM18" s="90"/>
+      <c r="FN18" s="90"/>
+      <c r="FO18" s="90"/>
+      <c r="FP18" s="90"/>
+      <c r="FQ18" s="90"/>
+      <c r="FR18" s="90"/>
+      <c r="FS18" s="90"/>
+      <c r="FT18" s="90"/>
+      <c r="FU18" s="90"/>
+      <c r="FV18" s="90"/>
+      <c r="FW18" s="90"/>
+      <c r="FX18" s="90"/>
+      <c r="FY18" s="90"/>
+      <c r="FZ18" s="90"/>
+      <c r="GA18" s="90"/>
+      <c r="GB18" s="90"/>
+      <c r="GC18" s="90"/>
+      <c r="GD18" s="90"/>
+      <c r="GE18" s="90"/>
+      <c r="GF18" s="90"/>
+      <c r="GG18" s="90"/>
+      <c r="GH18" s="90"/>
+      <c r="GI18" s="90"/>
+      <c r="GJ18" s="90"/>
+      <c r="GK18" s="90"/>
+      <c r="GL18" s="90"/>
+      <c r="GM18" s="90"/>
+      <c r="GN18" s="90"/>
+      <c r="GO18" s="90"/>
+      <c r="GP18" s="90"/>
+      <c r="GQ18" s="90"/>
+      <c r="GR18" s="90"/>
     </row>
-    <row r="19" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="19" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="94"/>
       <c r="B19" s="95" t="s">
         <v>32</v>
@@ -6235,7 +7005,9 @@
       <c r="C19" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="97"/>
+      <c r="D19" s="97">
+        <v>1</v>
+      </c>
       <c r="E19" s="98">
         <v>44685</v>
       </c>
@@ -6244,7 +7016,7 @@
       </c>
       <c r="G19" s="88"/>
       <c r="H19" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I19" s="89"/>
@@ -6345,20 +7117,20 @@
       <c r="CZ19" s="89"/>
       <c r="DA19" s="89"/>
       <c r="DB19" s="89"/>
-      <c r="DC19" s="90"/>
-      <c r="DD19" s="90"/>
-      <c r="DE19" s="90"/>
-      <c r="DF19" s="90"/>
-      <c r="DG19" s="90"/>
-      <c r="DH19" s="90"/>
-      <c r="DI19" s="90"/>
-      <c r="DJ19" s="90"/>
-      <c r="DK19" s="90"/>
-      <c r="DL19" s="90"/>
-      <c r="DM19" s="90"/>
-      <c r="DN19" s="90"/>
-      <c r="DO19" s="90"/>
-      <c r="DP19" s="90"/>
+      <c r="DC19" s="89"/>
+      <c r="DD19" s="89"/>
+      <c r="DE19" s="89"/>
+      <c r="DF19" s="89"/>
+      <c r="DG19" s="89"/>
+      <c r="DH19" s="89"/>
+      <c r="DI19" s="89"/>
+      <c r="DJ19" s="89"/>
+      <c r="DK19" s="89"/>
+      <c r="DL19" s="89"/>
+      <c r="DM19" s="89"/>
+      <c r="DN19" s="89"/>
+      <c r="DO19" s="89"/>
+      <c r="DP19" s="89"/>
       <c r="DQ19" s="90"/>
       <c r="DR19" s="90"/>
       <c r="DS19" s="90"/>
@@ -6367,8 +7139,80 @@
       <c r="DV19" s="90"/>
       <c r="DW19" s="90"/>
       <c r="DX19" s="90"/>
+      <c r="DY19" s="90"/>
+      <c r="DZ19" s="90"/>
+      <c r="EA19" s="90"/>
+      <c r="EB19" s="90"/>
+      <c r="EC19" s="90"/>
+      <c r="ED19" s="90"/>
+      <c r="EE19" s="90"/>
+      <c r="EF19" s="90"/>
+      <c r="EG19" s="90"/>
+      <c r="EH19" s="90"/>
+      <c r="EI19" s="90"/>
+      <c r="EJ19" s="90"/>
+      <c r="EK19" s="90"/>
+      <c r="EL19" s="90"/>
+      <c r="EM19" s="90"/>
+      <c r="EN19" s="90"/>
+      <c r="EO19" s="90"/>
+      <c r="EP19" s="90"/>
+      <c r="EQ19" s="90"/>
+      <c r="ER19" s="90"/>
+      <c r="ES19" s="90"/>
+      <c r="ET19" s="90"/>
+      <c r="EU19" s="90"/>
+      <c r="EV19" s="90"/>
+      <c r="EW19" s="90"/>
+      <c r="EX19" s="90"/>
+      <c r="EY19" s="90"/>
+      <c r="EZ19" s="90"/>
+      <c r="FA19" s="90"/>
+      <c r="FB19" s="90"/>
+      <c r="FC19" s="90"/>
+      <c r="FD19" s="90"/>
+      <c r="FE19" s="90"/>
+      <c r="FF19" s="90"/>
+      <c r="FG19" s="90"/>
+      <c r="FH19" s="90"/>
+      <c r="FI19" s="90"/>
+      <c r="FJ19" s="90"/>
+      <c r="FK19" s="90"/>
+      <c r="FL19" s="90"/>
+      <c r="FM19" s="90"/>
+      <c r="FN19" s="90"/>
+      <c r="FO19" s="90"/>
+      <c r="FP19" s="90"/>
+      <c r="FQ19" s="90"/>
+      <c r="FR19" s="90"/>
+      <c r="FS19" s="90"/>
+      <c r="FT19" s="90"/>
+      <c r="FU19" s="90"/>
+      <c r="FV19" s="90"/>
+      <c r="FW19" s="90"/>
+      <c r="FX19" s="90"/>
+      <c r="FY19" s="90"/>
+      <c r="FZ19" s="90"/>
+      <c r="GA19" s="90"/>
+      <c r="GB19" s="90"/>
+      <c r="GC19" s="90"/>
+      <c r="GD19" s="90"/>
+      <c r="GE19" s="90"/>
+      <c r="GF19" s="90"/>
+      <c r="GG19" s="90"/>
+      <c r="GH19" s="90"/>
+      <c r="GI19" s="90"/>
+      <c r="GJ19" s="90"/>
+      <c r="GK19" s="90"/>
+      <c r="GL19" s="90"/>
+      <c r="GM19" s="90"/>
+      <c r="GN19" s="90"/>
+      <c r="GO19" s="90"/>
+      <c r="GP19" s="90"/>
+      <c r="GQ19" s="90"/>
+      <c r="GR19" s="90"/>
     </row>
-    <row r="20" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="20" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="94"/>
       <c r="B20" s="95" t="s">
         <v>33</v>
@@ -6376,7 +7220,9 @@
       <c r="C20" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="97"/>
+      <c r="D20" s="97">
+        <v>0.5</v>
+      </c>
       <c r="E20" s="98">
         <v>44685</v>
       </c>
@@ -6385,7 +7231,7 @@
       </c>
       <c r="G20" s="88"/>
       <c r="H20" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I20" s="89"/>
@@ -6486,20 +7332,20 @@
       <c r="CZ20" s="89"/>
       <c r="DA20" s="89"/>
       <c r="DB20" s="89"/>
-      <c r="DC20" s="90"/>
-      <c r="DD20" s="90"/>
-      <c r="DE20" s="90"/>
-      <c r="DF20" s="90"/>
-      <c r="DG20" s="90"/>
-      <c r="DH20" s="90"/>
-      <c r="DI20" s="90"/>
-      <c r="DJ20" s="90"/>
-      <c r="DK20" s="90"/>
-      <c r="DL20" s="90"/>
-      <c r="DM20" s="90"/>
-      <c r="DN20" s="90"/>
-      <c r="DO20" s="90"/>
-      <c r="DP20" s="90"/>
+      <c r="DC20" s="89"/>
+      <c r="DD20" s="89"/>
+      <c r="DE20" s="89"/>
+      <c r="DF20" s="89"/>
+      <c r="DG20" s="89"/>
+      <c r="DH20" s="89"/>
+      <c r="DI20" s="89"/>
+      <c r="DJ20" s="89"/>
+      <c r="DK20" s="89"/>
+      <c r="DL20" s="89"/>
+      <c r="DM20" s="89"/>
+      <c r="DN20" s="89"/>
+      <c r="DO20" s="89"/>
+      <c r="DP20" s="89"/>
       <c r="DQ20" s="90"/>
       <c r="DR20" s="90"/>
       <c r="DS20" s="90"/>
@@ -6508,8 +7354,80 @@
       <c r="DV20" s="90"/>
       <c r="DW20" s="90"/>
       <c r="DX20" s="90"/>
+      <c r="DY20" s="90"/>
+      <c r="DZ20" s="90"/>
+      <c r="EA20" s="90"/>
+      <c r="EB20" s="90"/>
+      <c r="EC20" s="90"/>
+      <c r="ED20" s="90"/>
+      <c r="EE20" s="90"/>
+      <c r="EF20" s="90"/>
+      <c r="EG20" s="90"/>
+      <c r="EH20" s="90"/>
+      <c r="EI20" s="90"/>
+      <c r="EJ20" s="90"/>
+      <c r="EK20" s="90"/>
+      <c r="EL20" s="90"/>
+      <c r="EM20" s="90"/>
+      <c r="EN20" s="90"/>
+      <c r="EO20" s="90"/>
+      <c r="EP20" s="90"/>
+      <c r="EQ20" s="90"/>
+      <c r="ER20" s="90"/>
+      <c r="ES20" s="90"/>
+      <c r="ET20" s="90"/>
+      <c r="EU20" s="90"/>
+      <c r="EV20" s="90"/>
+      <c r="EW20" s="90"/>
+      <c r="EX20" s="90"/>
+      <c r="EY20" s="90"/>
+      <c r="EZ20" s="90"/>
+      <c r="FA20" s="90"/>
+      <c r="FB20" s="90"/>
+      <c r="FC20" s="90"/>
+      <c r="FD20" s="90"/>
+      <c r="FE20" s="90"/>
+      <c r="FF20" s="90"/>
+      <c r="FG20" s="90"/>
+      <c r="FH20" s="90"/>
+      <c r="FI20" s="90"/>
+      <c r="FJ20" s="90"/>
+      <c r="FK20" s="90"/>
+      <c r="FL20" s="90"/>
+      <c r="FM20" s="90"/>
+      <c r="FN20" s="90"/>
+      <c r="FO20" s="90"/>
+      <c r="FP20" s="90"/>
+      <c r="FQ20" s="90"/>
+      <c r="FR20" s="90"/>
+      <c r="FS20" s="90"/>
+      <c r="FT20" s="90"/>
+      <c r="FU20" s="90"/>
+      <c r="FV20" s="90"/>
+      <c r="FW20" s="90"/>
+      <c r="FX20" s="90"/>
+      <c r="FY20" s="90"/>
+      <c r="FZ20" s="90"/>
+      <c r="GA20" s="90"/>
+      <c r="GB20" s="90"/>
+      <c r="GC20" s="90"/>
+      <c r="GD20" s="90"/>
+      <c r="GE20" s="90"/>
+      <c r="GF20" s="90"/>
+      <c r="GG20" s="90"/>
+      <c r="GH20" s="90"/>
+      <c r="GI20" s="90"/>
+      <c r="GJ20" s="90"/>
+      <c r="GK20" s="90"/>
+      <c r="GL20" s="90"/>
+      <c r="GM20" s="90"/>
+      <c r="GN20" s="90"/>
+      <c r="GO20" s="90"/>
+      <c r="GP20" s="90"/>
+      <c r="GQ20" s="90"/>
+      <c r="GR20" s="90"/>
     </row>
-    <row r="21" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="21" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="15" t="s">
         <v>34</v>
@@ -6520,7 +7438,7 @@
       <c r="F21" s="100"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I21" s="17"/>
@@ -6621,8 +7539,22 @@
       <c r="CZ21" s="17"/>
       <c r="DA21" s="17"/>
       <c r="DB21" s="17"/>
+      <c r="DC21" s="17"/>
+      <c r="DD21" s="17"/>
+      <c r="DE21" s="17"/>
+      <c r="DF21" s="17"/>
+      <c r="DG21" s="17"/>
+      <c r="DH21" s="17"/>
+      <c r="DI21" s="17"/>
+      <c r="DJ21" s="17"/>
+      <c r="DK21" s="17"/>
+      <c r="DL21" s="17"/>
+      <c r="DM21" s="17"/>
+      <c r="DN21" s="17"/>
+      <c r="DO21" s="17"/>
+      <c r="DP21" s="17"/>
     </row>
-    <row r="22" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="22" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="45" t="s">
         <v>34</v>
@@ -6639,7 +7571,7 @@
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="I22" s="17"/>
@@ -6740,8 +7672,22 @@
       <c r="CZ22" s="17"/>
       <c r="DA22" s="17"/>
       <c r="DB22" s="17"/>
+      <c r="DC22" s="17"/>
+      <c r="DD22" s="17"/>
+      <c r="DE22" s="17"/>
+      <c r="DF22" s="17"/>
+      <c r="DG22" s="17"/>
+      <c r="DH22" s="17"/>
+      <c r="DI22" s="17"/>
+      <c r="DJ22" s="17"/>
+      <c r="DK22" s="17"/>
+      <c r="DL22" s="17"/>
+      <c r="DM22" s="17"/>
+      <c r="DN22" s="17"/>
+      <c r="DO22" s="17"/>
+      <c r="DP22" s="17"/>
     </row>
-    <row r="23" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="23" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="94"/>
       <c r="B23" s="102" t="s">
         <v>35</v>
@@ -6749,7 +7695,9 @@
       <c r="C23" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="104"/>
+      <c r="D23" s="104">
+        <v>1</v>
+      </c>
       <c r="E23" s="105">
         <v>44683</v>
       </c>
@@ -6758,7 +7706,7 @@
       </c>
       <c r="G23" s="88"/>
       <c r="H23" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I23" s="89"/>
@@ -6859,20 +7807,20 @@
       <c r="CZ23" s="89"/>
       <c r="DA23" s="89"/>
       <c r="DB23" s="89"/>
-      <c r="DC23" s="90"/>
-      <c r="DD23" s="90"/>
-      <c r="DE23" s="90"/>
-      <c r="DF23" s="90"/>
-      <c r="DG23" s="90"/>
-      <c r="DH23" s="90"/>
-      <c r="DI23" s="90"/>
-      <c r="DJ23" s="90"/>
-      <c r="DK23" s="90"/>
-      <c r="DL23" s="90"/>
-      <c r="DM23" s="90"/>
-      <c r="DN23" s="90"/>
-      <c r="DO23" s="90"/>
-      <c r="DP23" s="90"/>
+      <c r="DC23" s="89"/>
+      <c r="DD23" s="89"/>
+      <c r="DE23" s="89"/>
+      <c r="DF23" s="89"/>
+      <c r="DG23" s="89"/>
+      <c r="DH23" s="89"/>
+      <c r="DI23" s="89"/>
+      <c r="DJ23" s="89"/>
+      <c r="DK23" s="89"/>
+      <c r="DL23" s="89"/>
+      <c r="DM23" s="89"/>
+      <c r="DN23" s="89"/>
+      <c r="DO23" s="89"/>
+      <c r="DP23" s="89"/>
       <c r="DQ23" s="90"/>
       <c r="DR23" s="90"/>
       <c r="DS23" s="90"/>
@@ -6881,8 +7829,80 @@
       <c r="DV23" s="90"/>
       <c r="DW23" s="90"/>
       <c r="DX23" s="90"/>
+      <c r="DY23" s="90"/>
+      <c r="DZ23" s="90"/>
+      <c r="EA23" s="90"/>
+      <c r="EB23" s="90"/>
+      <c r="EC23" s="90"/>
+      <c r="ED23" s="90"/>
+      <c r="EE23" s="90"/>
+      <c r="EF23" s="90"/>
+      <c r="EG23" s="90"/>
+      <c r="EH23" s="90"/>
+      <c r="EI23" s="90"/>
+      <c r="EJ23" s="90"/>
+      <c r="EK23" s="90"/>
+      <c r="EL23" s="90"/>
+      <c r="EM23" s="90"/>
+      <c r="EN23" s="90"/>
+      <c r="EO23" s="90"/>
+      <c r="EP23" s="90"/>
+      <c r="EQ23" s="90"/>
+      <c r="ER23" s="90"/>
+      <c r="ES23" s="90"/>
+      <c r="ET23" s="90"/>
+      <c r="EU23" s="90"/>
+      <c r="EV23" s="90"/>
+      <c r="EW23" s="90"/>
+      <c r="EX23" s="90"/>
+      <c r="EY23" s="90"/>
+      <c r="EZ23" s="90"/>
+      <c r="FA23" s="90"/>
+      <c r="FB23" s="90"/>
+      <c r="FC23" s="90"/>
+      <c r="FD23" s="90"/>
+      <c r="FE23" s="90"/>
+      <c r="FF23" s="90"/>
+      <c r="FG23" s="90"/>
+      <c r="FH23" s="90"/>
+      <c r="FI23" s="90"/>
+      <c r="FJ23" s="90"/>
+      <c r="FK23" s="90"/>
+      <c r="FL23" s="90"/>
+      <c r="FM23" s="90"/>
+      <c r="FN23" s="90"/>
+      <c r="FO23" s="90"/>
+      <c r="FP23" s="90"/>
+      <c r="FQ23" s="90"/>
+      <c r="FR23" s="90"/>
+      <c r="FS23" s="90"/>
+      <c r="FT23" s="90"/>
+      <c r="FU23" s="90"/>
+      <c r="FV23" s="90"/>
+      <c r="FW23" s="90"/>
+      <c r="FX23" s="90"/>
+      <c r="FY23" s="90"/>
+      <c r="FZ23" s="90"/>
+      <c r="GA23" s="90"/>
+      <c r="GB23" s="90"/>
+      <c r="GC23" s="90"/>
+      <c r="GD23" s="90"/>
+      <c r="GE23" s="90"/>
+      <c r="GF23" s="90"/>
+      <c r="GG23" s="90"/>
+      <c r="GH23" s="90"/>
+      <c r="GI23" s="90"/>
+      <c r="GJ23" s="90"/>
+      <c r="GK23" s="90"/>
+      <c r="GL23" s="90"/>
+      <c r="GM23" s="90"/>
+      <c r="GN23" s="90"/>
+      <c r="GO23" s="90"/>
+      <c r="GP23" s="90"/>
+      <c r="GQ23" s="90"/>
+      <c r="GR23" s="90"/>
     </row>
-    <row r="24" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="24" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="94"/>
       <c r="B24" s="102" t="s">
         <v>36</v>
@@ -6890,7 +7910,9 @@
       <c r="C24" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="104"/>
+      <c r="D24" s="104">
+        <v>1</v>
+      </c>
       <c r="E24" s="105">
         <v>44684</v>
       </c>
@@ -6899,7 +7921,7 @@
       </c>
       <c r="G24" s="88"/>
       <c r="H24" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I24" s="89"/>
@@ -7000,20 +8022,20 @@
       <c r="CZ24" s="89"/>
       <c r="DA24" s="89"/>
       <c r="DB24" s="89"/>
-      <c r="DC24" s="90"/>
-      <c r="DD24" s="90"/>
-      <c r="DE24" s="90"/>
-      <c r="DF24" s="90"/>
-      <c r="DG24" s="90"/>
-      <c r="DH24" s="90"/>
-      <c r="DI24" s="90"/>
-      <c r="DJ24" s="90"/>
-      <c r="DK24" s="90"/>
-      <c r="DL24" s="90"/>
-      <c r="DM24" s="90"/>
-      <c r="DN24" s="90"/>
-      <c r="DO24" s="90"/>
-      <c r="DP24" s="90"/>
+      <c r="DC24" s="89"/>
+      <c r="DD24" s="89"/>
+      <c r="DE24" s="89"/>
+      <c r="DF24" s="89"/>
+      <c r="DG24" s="89"/>
+      <c r="DH24" s="89"/>
+      <c r="DI24" s="89"/>
+      <c r="DJ24" s="89"/>
+      <c r="DK24" s="89"/>
+      <c r="DL24" s="89"/>
+      <c r="DM24" s="89"/>
+      <c r="DN24" s="89"/>
+      <c r="DO24" s="89"/>
+      <c r="DP24" s="89"/>
       <c r="DQ24" s="90"/>
       <c r="DR24" s="90"/>
       <c r="DS24" s="90"/>
@@ -7022,8 +8044,80 @@
       <c r="DV24" s="90"/>
       <c r="DW24" s="90"/>
       <c r="DX24" s="90"/>
+      <c r="DY24" s="90"/>
+      <c r="DZ24" s="90"/>
+      <c r="EA24" s="90"/>
+      <c r="EB24" s="90"/>
+      <c r="EC24" s="90"/>
+      <c r="ED24" s="90"/>
+      <c r="EE24" s="90"/>
+      <c r="EF24" s="90"/>
+      <c r="EG24" s="90"/>
+      <c r="EH24" s="90"/>
+      <c r="EI24" s="90"/>
+      <c r="EJ24" s="90"/>
+      <c r="EK24" s="90"/>
+      <c r="EL24" s="90"/>
+      <c r="EM24" s="90"/>
+      <c r="EN24" s="90"/>
+      <c r="EO24" s="90"/>
+      <c r="EP24" s="90"/>
+      <c r="EQ24" s="90"/>
+      <c r="ER24" s="90"/>
+      <c r="ES24" s="90"/>
+      <c r="ET24" s="90"/>
+      <c r="EU24" s="90"/>
+      <c r="EV24" s="90"/>
+      <c r="EW24" s="90"/>
+      <c r="EX24" s="90"/>
+      <c r="EY24" s="90"/>
+      <c r="EZ24" s="90"/>
+      <c r="FA24" s="90"/>
+      <c r="FB24" s="90"/>
+      <c r="FC24" s="90"/>
+      <c r="FD24" s="90"/>
+      <c r="FE24" s="90"/>
+      <c r="FF24" s="90"/>
+      <c r="FG24" s="90"/>
+      <c r="FH24" s="90"/>
+      <c r="FI24" s="90"/>
+      <c r="FJ24" s="90"/>
+      <c r="FK24" s="90"/>
+      <c r="FL24" s="90"/>
+      <c r="FM24" s="90"/>
+      <c r="FN24" s="90"/>
+      <c r="FO24" s="90"/>
+      <c r="FP24" s="90"/>
+      <c r="FQ24" s="90"/>
+      <c r="FR24" s="90"/>
+      <c r="FS24" s="90"/>
+      <c r="FT24" s="90"/>
+      <c r="FU24" s="90"/>
+      <c r="FV24" s="90"/>
+      <c r="FW24" s="90"/>
+      <c r="FX24" s="90"/>
+      <c r="FY24" s="90"/>
+      <c r="FZ24" s="90"/>
+      <c r="GA24" s="90"/>
+      <c r="GB24" s="90"/>
+      <c r="GC24" s="90"/>
+      <c r="GD24" s="90"/>
+      <c r="GE24" s="90"/>
+      <c r="GF24" s="90"/>
+      <c r="GG24" s="90"/>
+      <c r="GH24" s="90"/>
+      <c r="GI24" s="90"/>
+      <c r="GJ24" s="90"/>
+      <c r="GK24" s="90"/>
+      <c r="GL24" s="90"/>
+      <c r="GM24" s="90"/>
+      <c r="GN24" s="90"/>
+      <c r="GO24" s="90"/>
+      <c r="GP24" s="90"/>
+      <c r="GQ24" s="90"/>
+      <c r="GR24" s="90"/>
     </row>
-    <row r="25" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="25" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="94"/>
       <c r="B25" s="102" t="s">
         <v>37</v>
@@ -7031,7 +8125,9 @@
       <c r="C25" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="104"/>
+      <c r="D25" s="104">
+        <v>1</v>
+      </c>
       <c r="E25" s="105">
         <v>44686</v>
       </c>
@@ -7040,7 +8136,7 @@
       </c>
       <c r="G25" s="88"/>
       <c r="H25" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I25" s="89"/>
@@ -7141,20 +8237,20 @@
       <c r="CZ25" s="89"/>
       <c r="DA25" s="89"/>
       <c r="DB25" s="89"/>
-      <c r="DC25" s="90"/>
-      <c r="DD25" s="90"/>
-      <c r="DE25" s="90"/>
-      <c r="DF25" s="90"/>
-      <c r="DG25" s="90"/>
-      <c r="DH25" s="90"/>
-      <c r="DI25" s="90"/>
-      <c r="DJ25" s="90"/>
-      <c r="DK25" s="90"/>
-      <c r="DL25" s="90"/>
-      <c r="DM25" s="90"/>
-      <c r="DN25" s="90"/>
-      <c r="DO25" s="90"/>
-      <c r="DP25" s="90"/>
+      <c r="DC25" s="89"/>
+      <c r="DD25" s="89"/>
+      <c r="DE25" s="89"/>
+      <c r="DF25" s="89"/>
+      <c r="DG25" s="89"/>
+      <c r="DH25" s="89"/>
+      <c r="DI25" s="89"/>
+      <c r="DJ25" s="89"/>
+      <c r="DK25" s="89"/>
+      <c r="DL25" s="89"/>
+      <c r="DM25" s="89"/>
+      <c r="DN25" s="89"/>
+      <c r="DO25" s="89"/>
+      <c r="DP25" s="89"/>
       <c r="DQ25" s="90"/>
       <c r="DR25" s="90"/>
       <c r="DS25" s="90"/>
@@ -7163,8 +8259,80 @@
       <c r="DV25" s="90"/>
       <c r="DW25" s="90"/>
       <c r="DX25" s="90"/>
+      <c r="DY25" s="90"/>
+      <c r="DZ25" s="90"/>
+      <c r="EA25" s="90"/>
+      <c r="EB25" s="90"/>
+      <c r="EC25" s="90"/>
+      <c r="ED25" s="90"/>
+      <c r="EE25" s="90"/>
+      <c r="EF25" s="90"/>
+      <c r="EG25" s="90"/>
+      <c r="EH25" s="90"/>
+      <c r="EI25" s="90"/>
+      <c r="EJ25" s="90"/>
+      <c r="EK25" s="90"/>
+      <c r="EL25" s="90"/>
+      <c r="EM25" s="90"/>
+      <c r="EN25" s="90"/>
+      <c r="EO25" s="90"/>
+      <c r="EP25" s="90"/>
+      <c r="EQ25" s="90"/>
+      <c r="ER25" s="90"/>
+      <c r="ES25" s="90"/>
+      <c r="ET25" s="90"/>
+      <c r="EU25" s="90"/>
+      <c r="EV25" s="90"/>
+      <c r="EW25" s="90"/>
+      <c r="EX25" s="90"/>
+      <c r="EY25" s="90"/>
+      <c r="EZ25" s="90"/>
+      <c r="FA25" s="90"/>
+      <c r="FB25" s="90"/>
+      <c r="FC25" s="90"/>
+      <c r="FD25" s="90"/>
+      <c r="FE25" s="90"/>
+      <c r="FF25" s="90"/>
+      <c r="FG25" s="90"/>
+      <c r="FH25" s="90"/>
+      <c r="FI25" s="90"/>
+      <c r="FJ25" s="90"/>
+      <c r="FK25" s="90"/>
+      <c r="FL25" s="90"/>
+      <c r="FM25" s="90"/>
+      <c r="FN25" s="90"/>
+      <c r="FO25" s="90"/>
+      <c r="FP25" s="90"/>
+      <c r="FQ25" s="90"/>
+      <c r="FR25" s="90"/>
+      <c r="FS25" s="90"/>
+      <c r="FT25" s="90"/>
+      <c r="FU25" s="90"/>
+      <c r="FV25" s="90"/>
+      <c r="FW25" s="90"/>
+      <c r="FX25" s="90"/>
+      <c r="FY25" s="90"/>
+      <c r="FZ25" s="90"/>
+      <c r="GA25" s="90"/>
+      <c r="GB25" s="90"/>
+      <c r="GC25" s="90"/>
+      <c r="GD25" s="90"/>
+      <c r="GE25" s="90"/>
+      <c r="GF25" s="90"/>
+      <c r="GG25" s="90"/>
+      <c r="GH25" s="90"/>
+      <c r="GI25" s="90"/>
+      <c r="GJ25" s="90"/>
+      <c r="GK25" s="90"/>
+      <c r="GL25" s="90"/>
+      <c r="GM25" s="90"/>
+      <c r="GN25" s="90"/>
+      <c r="GO25" s="90"/>
+      <c r="GP25" s="90"/>
+      <c r="GQ25" s="90"/>
+      <c r="GR25" s="90"/>
     </row>
-    <row r="26" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="26" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="94"/>
       <c r="B26" s="102" t="s">
         <v>38</v>
@@ -7181,7 +8349,7 @@
       </c>
       <c r="G26" s="88"/>
       <c r="H26" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I26" s="89"/>
@@ -7282,20 +8450,20 @@
       <c r="CZ26" s="89"/>
       <c r="DA26" s="89"/>
       <c r="DB26" s="89"/>
-      <c r="DC26" s="90"/>
-      <c r="DD26" s="90"/>
-      <c r="DE26" s="90"/>
-      <c r="DF26" s="90"/>
-      <c r="DG26" s="90"/>
-      <c r="DH26" s="90"/>
-      <c r="DI26" s="90"/>
-      <c r="DJ26" s="90"/>
-      <c r="DK26" s="90"/>
-      <c r="DL26" s="90"/>
-      <c r="DM26" s="90"/>
-      <c r="DN26" s="90"/>
-      <c r="DO26" s="90"/>
-      <c r="DP26" s="90"/>
+      <c r="DC26" s="89"/>
+      <c r="DD26" s="89"/>
+      <c r="DE26" s="89"/>
+      <c r="DF26" s="89"/>
+      <c r="DG26" s="89"/>
+      <c r="DH26" s="89"/>
+      <c r="DI26" s="89"/>
+      <c r="DJ26" s="89"/>
+      <c r="DK26" s="89"/>
+      <c r="DL26" s="89"/>
+      <c r="DM26" s="89"/>
+      <c r="DN26" s="89"/>
+      <c r="DO26" s="89"/>
+      <c r="DP26" s="89"/>
       <c r="DQ26" s="90"/>
       <c r="DR26" s="90"/>
       <c r="DS26" s="90"/>
@@ -7304,8 +8472,80 @@
       <c r="DV26" s="90"/>
       <c r="DW26" s="90"/>
       <c r="DX26" s="90"/>
+      <c r="DY26" s="90"/>
+      <c r="DZ26" s="90"/>
+      <c r="EA26" s="90"/>
+      <c r="EB26" s="90"/>
+      <c r="EC26" s="90"/>
+      <c r="ED26" s="90"/>
+      <c r="EE26" s="90"/>
+      <c r="EF26" s="90"/>
+      <c r="EG26" s="90"/>
+      <c r="EH26" s="90"/>
+      <c r="EI26" s="90"/>
+      <c r="EJ26" s="90"/>
+      <c r="EK26" s="90"/>
+      <c r="EL26" s="90"/>
+      <c r="EM26" s="90"/>
+      <c r="EN26" s="90"/>
+      <c r="EO26" s="90"/>
+      <c r="EP26" s="90"/>
+      <c r="EQ26" s="90"/>
+      <c r="ER26" s="90"/>
+      <c r="ES26" s="90"/>
+      <c r="ET26" s="90"/>
+      <c r="EU26" s="90"/>
+      <c r="EV26" s="90"/>
+      <c r="EW26" s="90"/>
+      <c r="EX26" s="90"/>
+      <c r="EY26" s="90"/>
+      <c r="EZ26" s="90"/>
+      <c r="FA26" s="90"/>
+      <c r="FB26" s="90"/>
+      <c r="FC26" s="90"/>
+      <c r="FD26" s="90"/>
+      <c r="FE26" s="90"/>
+      <c r="FF26" s="90"/>
+      <c r="FG26" s="90"/>
+      <c r="FH26" s="90"/>
+      <c r="FI26" s="90"/>
+      <c r="FJ26" s="90"/>
+      <c r="FK26" s="90"/>
+      <c r="FL26" s="90"/>
+      <c r="FM26" s="90"/>
+      <c r="FN26" s="90"/>
+      <c r="FO26" s="90"/>
+      <c r="FP26" s="90"/>
+      <c r="FQ26" s="90"/>
+      <c r="FR26" s="90"/>
+      <c r="FS26" s="90"/>
+      <c r="FT26" s="90"/>
+      <c r="FU26" s="90"/>
+      <c r="FV26" s="90"/>
+      <c r="FW26" s="90"/>
+      <c r="FX26" s="90"/>
+      <c r="FY26" s="90"/>
+      <c r="FZ26" s="90"/>
+      <c r="GA26" s="90"/>
+      <c r="GB26" s="90"/>
+      <c r="GC26" s="90"/>
+      <c r="GD26" s="90"/>
+      <c r="GE26" s="90"/>
+      <c r="GF26" s="90"/>
+      <c r="GG26" s="90"/>
+      <c r="GH26" s="90"/>
+      <c r="GI26" s="90"/>
+      <c r="GJ26" s="90"/>
+      <c r="GK26" s="90"/>
+      <c r="GL26" s="90"/>
+      <c r="GM26" s="90"/>
+      <c r="GN26" s="90"/>
+      <c r="GO26" s="90"/>
+      <c r="GP26" s="90"/>
+      <c r="GQ26" s="90"/>
+      <c r="GR26" s="90"/>
     </row>
-    <row r="27" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="27" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="94"/>
       <c r="B27" s="102" t="s">
         <v>39</v>
@@ -7322,7 +8562,7 @@
       </c>
       <c r="G27" s="88"/>
       <c r="H27" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I27" s="89"/>
@@ -7423,20 +8663,20 @@
       <c r="CZ27" s="89"/>
       <c r="DA27" s="89"/>
       <c r="DB27" s="89"/>
-      <c r="DC27" s="90"/>
-      <c r="DD27" s="90"/>
-      <c r="DE27" s="90"/>
-      <c r="DF27" s="90"/>
-      <c r="DG27" s="90"/>
-      <c r="DH27" s="90"/>
-      <c r="DI27" s="90"/>
-      <c r="DJ27" s="90"/>
-      <c r="DK27" s="90"/>
-      <c r="DL27" s="90"/>
-      <c r="DM27" s="90"/>
-      <c r="DN27" s="90"/>
-      <c r="DO27" s="90"/>
-      <c r="DP27" s="90"/>
+      <c r="DC27" s="89"/>
+      <c r="DD27" s="89"/>
+      <c r="DE27" s="89"/>
+      <c r="DF27" s="89"/>
+      <c r="DG27" s="89"/>
+      <c r="DH27" s="89"/>
+      <c r="DI27" s="89"/>
+      <c r="DJ27" s="89"/>
+      <c r="DK27" s="89"/>
+      <c r="DL27" s="89"/>
+      <c r="DM27" s="89"/>
+      <c r="DN27" s="89"/>
+      <c r="DO27" s="89"/>
+      <c r="DP27" s="89"/>
       <c r="DQ27" s="90"/>
       <c r="DR27" s="90"/>
       <c r="DS27" s="90"/>
@@ -7445,8 +8685,80 @@
       <c r="DV27" s="90"/>
       <c r="DW27" s="90"/>
       <c r="DX27" s="90"/>
+      <c r="DY27" s="90"/>
+      <c r="DZ27" s="90"/>
+      <c r="EA27" s="90"/>
+      <c r="EB27" s="90"/>
+      <c r="EC27" s="90"/>
+      <c r="ED27" s="90"/>
+      <c r="EE27" s="90"/>
+      <c r="EF27" s="90"/>
+      <c r="EG27" s="90"/>
+      <c r="EH27" s="90"/>
+      <c r="EI27" s="90"/>
+      <c r="EJ27" s="90"/>
+      <c r="EK27" s="90"/>
+      <c r="EL27" s="90"/>
+      <c r="EM27" s="90"/>
+      <c r="EN27" s="90"/>
+      <c r="EO27" s="90"/>
+      <c r="EP27" s="90"/>
+      <c r="EQ27" s="90"/>
+      <c r="ER27" s="90"/>
+      <c r="ES27" s="90"/>
+      <c r="ET27" s="90"/>
+      <c r="EU27" s="90"/>
+      <c r="EV27" s="90"/>
+      <c r="EW27" s="90"/>
+      <c r="EX27" s="90"/>
+      <c r="EY27" s="90"/>
+      <c r="EZ27" s="90"/>
+      <c r="FA27" s="90"/>
+      <c r="FB27" s="90"/>
+      <c r="FC27" s="90"/>
+      <c r="FD27" s="90"/>
+      <c r="FE27" s="90"/>
+      <c r="FF27" s="90"/>
+      <c r="FG27" s="90"/>
+      <c r="FH27" s="90"/>
+      <c r="FI27" s="90"/>
+      <c r="FJ27" s="90"/>
+      <c r="FK27" s="90"/>
+      <c r="FL27" s="90"/>
+      <c r="FM27" s="90"/>
+      <c r="FN27" s="90"/>
+      <c r="FO27" s="90"/>
+      <c r="FP27" s="90"/>
+      <c r="FQ27" s="90"/>
+      <c r="FR27" s="90"/>
+      <c r="FS27" s="90"/>
+      <c r="FT27" s="90"/>
+      <c r="FU27" s="90"/>
+      <c r="FV27" s="90"/>
+      <c r="FW27" s="90"/>
+      <c r="FX27" s="90"/>
+      <c r="FY27" s="90"/>
+      <c r="FZ27" s="90"/>
+      <c r="GA27" s="90"/>
+      <c r="GB27" s="90"/>
+      <c r="GC27" s="90"/>
+      <c r="GD27" s="90"/>
+      <c r="GE27" s="90"/>
+      <c r="GF27" s="90"/>
+      <c r="GG27" s="90"/>
+      <c r="GH27" s="90"/>
+      <c r="GI27" s="90"/>
+      <c r="GJ27" s="90"/>
+      <c r="GK27" s="90"/>
+      <c r="GL27" s="90"/>
+      <c r="GM27" s="90"/>
+      <c r="GN27" s="90"/>
+      <c r="GO27" s="90"/>
+      <c r="GP27" s="90"/>
+      <c r="GQ27" s="90"/>
+      <c r="GR27" s="90"/>
     </row>
-    <row r="28" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="28" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
         <v>40</v>
       </c>
@@ -7459,7 +8771,7 @@
       <c r="F28" s="107"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I28" s="17"/>
@@ -7560,8 +8872,22 @@
       <c r="CZ28" s="17"/>
       <c r="DA28" s="17"/>
       <c r="DB28" s="17"/>
+      <c r="DC28" s="17"/>
+      <c r="DD28" s="17"/>
+      <c r="DE28" s="17"/>
+      <c r="DF28" s="17"/>
+      <c r="DG28" s="17"/>
+      <c r="DH28" s="17"/>
+      <c r="DI28" s="17"/>
+      <c r="DJ28" s="17"/>
+      <c r="DK28" s="17"/>
+      <c r="DL28" s="17"/>
+      <c r="DM28" s="17"/>
+      <c r="DN28" s="17"/>
+      <c r="DO28" s="17"/>
+      <c r="DP28" s="17"/>
     </row>
-    <row r="29" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="29" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28"/>
       <c r="B29" s="46" t="s">
         <v>41</v>
@@ -7578,7 +8904,7 @@
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="I29" s="17"/>
@@ -7679,8 +9005,22 @@
       <c r="CZ29" s="17"/>
       <c r="DA29" s="17"/>
       <c r="DB29" s="17"/>
+      <c r="DC29" s="17"/>
+      <c r="DD29" s="17"/>
+      <c r="DE29" s="17"/>
+      <c r="DF29" s="17"/>
+      <c r="DG29" s="17"/>
+      <c r="DH29" s="17"/>
+      <c r="DI29" s="17"/>
+      <c r="DJ29" s="17"/>
+      <c r="DK29" s="17"/>
+      <c r="DL29" s="17"/>
+      <c r="DM29" s="17"/>
+      <c r="DN29" s="17"/>
+      <c r="DO29" s="17"/>
+      <c r="DP29" s="17"/>
     </row>
-    <row r="30" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="30" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="83"/>
       <c r="B30" s="109" t="s">
         <v>42</v>
@@ -7697,7 +9037,7 @@
       </c>
       <c r="G30" s="88"/>
       <c r="H30" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I30" s="89"/>
@@ -7798,20 +9138,20 @@
       <c r="CZ30" s="89"/>
       <c r="DA30" s="89"/>
       <c r="DB30" s="89"/>
-      <c r="DC30" s="90"/>
-      <c r="DD30" s="90"/>
-      <c r="DE30" s="90"/>
-      <c r="DF30" s="90"/>
-      <c r="DG30" s="90"/>
-      <c r="DH30" s="90"/>
-      <c r="DI30" s="90"/>
-      <c r="DJ30" s="90"/>
-      <c r="DK30" s="90"/>
-      <c r="DL30" s="90"/>
-      <c r="DM30" s="90"/>
-      <c r="DN30" s="90"/>
-      <c r="DO30" s="90"/>
-      <c r="DP30" s="90"/>
+      <c r="DC30" s="89"/>
+      <c r="DD30" s="89"/>
+      <c r="DE30" s="89"/>
+      <c r="DF30" s="89"/>
+      <c r="DG30" s="89"/>
+      <c r="DH30" s="89"/>
+      <c r="DI30" s="89"/>
+      <c r="DJ30" s="89"/>
+      <c r="DK30" s="89"/>
+      <c r="DL30" s="89"/>
+      <c r="DM30" s="89"/>
+      <c r="DN30" s="89"/>
+      <c r="DO30" s="89"/>
+      <c r="DP30" s="89"/>
       <c r="DQ30" s="90"/>
       <c r="DR30" s="90"/>
       <c r="DS30" s="90"/>
@@ -7820,8 +9160,80 @@
       <c r="DV30" s="90"/>
       <c r="DW30" s="90"/>
       <c r="DX30" s="90"/>
+      <c r="DY30" s="90"/>
+      <c r="DZ30" s="90"/>
+      <c r="EA30" s="90"/>
+      <c r="EB30" s="90"/>
+      <c r="EC30" s="90"/>
+      <c r="ED30" s="90"/>
+      <c r="EE30" s="90"/>
+      <c r="EF30" s="90"/>
+      <c r="EG30" s="90"/>
+      <c r="EH30" s="90"/>
+      <c r="EI30" s="90"/>
+      <c r="EJ30" s="90"/>
+      <c r="EK30" s="90"/>
+      <c r="EL30" s="90"/>
+      <c r="EM30" s="90"/>
+      <c r="EN30" s="90"/>
+      <c r="EO30" s="90"/>
+      <c r="EP30" s="90"/>
+      <c r="EQ30" s="90"/>
+      <c r="ER30" s="90"/>
+      <c r="ES30" s="90"/>
+      <c r="ET30" s="90"/>
+      <c r="EU30" s="90"/>
+      <c r="EV30" s="90"/>
+      <c r="EW30" s="90"/>
+      <c r="EX30" s="90"/>
+      <c r="EY30" s="90"/>
+      <c r="EZ30" s="90"/>
+      <c r="FA30" s="90"/>
+      <c r="FB30" s="90"/>
+      <c r="FC30" s="90"/>
+      <c r="FD30" s="90"/>
+      <c r="FE30" s="90"/>
+      <c r="FF30" s="90"/>
+      <c r="FG30" s="90"/>
+      <c r="FH30" s="90"/>
+      <c r="FI30" s="90"/>
+      <c r="FJ30" s="90"/>
+      <c r="FK30" s="90"/>
+      <c r="FL30" s="90"/>
+      <c r="FM30" s="90"/>
+      <c r="FN30" s="90"/>
+      <c r="FO30" s="90"/>
+      <c r="FP30" s="90"/>
+      <c r="FQ30" s="90"/>
+      <c r="FR30" s="90"/>
+      <c r="FS30" s="90"/>
+      <c r="FT30" s="90"/>
+      <c r="FU30" s="90"/>
+      <c r="FV30" s="90"/>
+      <c r="FW30" s="90"/>
+      <c r="FX30" s="90"/>
+      <c r="FY30" s="90"/>
+      <c r="FZ30" s="90"/>
+      <c r="GA30" s="90"/>
+      <c r="GB30" s="90"/>
+      <c r="GC30" s="90"/>
+      <c r="GD30" s="90"/>
+      <c r="GE30" s="90"/>
+      <c r="GF30" s="90"/>
+      <c r="GG30" s="90"/>
+      <c r="GH30" s="90"/>
+      <c r="GI30" s="90"/>
+      <c r="GJ30" s="90"/>
+      <c r="GK30" s="90"/>
+      <c r="GL30" s="90"/>
+      <c r="GM30" s="90"/>
+      <c r="GN30" s="90"/>
+      <c r="GO30" s="90"/>
+      <c r="GP30" s="90"/>
+      <c r="GQ30" s="90"/>
+      <c r="GR30" s="90"/>
     </row>
-    <row r="31" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="31" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="83"/>
       <c r="B31" s="109" t="s">
         <v>43</v>
@@ -7838,7 +9250,7 @@
       </c>
       <c r="G31" s="88"/>
       <c r="H31" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I31" s="89"/>
@@ -7939,20 +9351,20 @@
       <c r="CZ31" s="89"/>
       <c r="DA31" s="89"/>
       <c r="DB31" s="89"/>
-      <c r="DC31" s="90"/>
-      <c r="DD31" s="90"/>
-      <c r="DE31" s="90"/>
-      <c r="DF31" s="90"/>
-      <c r="DG31" s="90"/>
-      <c r="DH31" s="90"/>
-      <c r="DI31" s="90"/>
-      <c r="DJ31" s="90"/>
-      <c r="DK31" s="90"/>
-      <c r="DL31" s="90"/>
-      <c r="DM31" s="90"/>
-      <c r="DN31" s="90"/>
-      <c r="DO31" s="90"/>
-      <c r="DP31" s="90"/>
+      <c r="DC31" s="89"/>
+      <c r="DD31" s="89"/>
+      <c r="DE31" s="89"/>
+      <c r="DF31" s="89"/>
+      <c r="DG31" s="89"/>
+      <c r="DH31" s="89"/>
+      <c r="DI31" s="89"/>
+      <c r="DJ31" s="89"/>
+      <c r="DK31" s="89"/>
+      <c r="DL31" s="89"/>
+      <c r="DM31" s="89"/>
+      <c r="DN31" s="89"/>
+      <c r="DO31" s="89"/>
+      <c r="DP31" s="89"/>
       <c r="DQ31" s="90"/>
       <c r="DR31" s="90"/>
       <c r="DS31" s="90"/>
@@ -7961,8 +9373,80 @@
       <c r="DV31" s="90"/>
       <c r="DW31" s="90"/>
       <c r="DX31" s="90"/>
+      <c r="DY31" s="90"/>
+      <c r="DZ31" s="90"/>
+      <c r="EA31" s="90"/>
+      <c r="EB31" s="90"/>
+      <c r="EC31" s="90"/>
+      <c r="ED31" s="90"/>
+      <c r="EE31" s="90"/>
+      <c r="EF31" s="90"/>
+      <c r="EG31" s="90"/>
+      <c r="EH31" s="90"/>
+      <c r="EI31" s="90"/>
+      <c r="EJ31" s="90"/>
+      <c r="EK31" s="90"/>
+      <c r="EL31" s="90"/>
+      <c r="EM31" s="90"/>
+      <c r="EN31" s="90"/>
+      <c r="EO31" s="90"/>
+      <c r="EP31" s="90"/>
+      <c r="EQ31" s="90"/>
+      <c r="ER31" s="90"/>
+      <c r="ES31" s="90"/>
+      <c r="ET31" s="90"/>
+      <c r="EU31" s="90"/>
+      <c r="EV31" s="90"/>
+      <c r="EW31" s="90"/>
+      <c r="EX31" s="90"/>
+      <c r="EY31" s="90"/>
+      <c r="EZ31" s="90"/>
+      <c r="FA31" s="90"/>
+      <c r="FB31" s="90"/>
+      <c r="FC31" s="90"/>
+      <c r="FD31" s="90"/>
+      <c r="FE31" s="90"/>
+      <c r="FF31" s="90"/>
+      <c r="FG31" s="90"/>
+      <c r="FH31" s="90"/>
+      <c r="FI31" s="90"/>
+      <c r="FJ31" s="90"/>
+      <c r="FK31" s="90"/>
+      <c r="FL31" s="90"/>
+      <c r="FM31" s="90"/>
+      <c r="FN31" s="90"/>
+      <c r="FO31" s="90"/>
+      <c r="FP31" s="90"/>
+      <c r="FQ31" s="90"/>
+      <c r="FR31" s="90"/>
+      <c r="FS31" s="90"/>
+      <c r="FT31" s="90"/>
+      <c r="FU31" s="90"/>
+      <c r="FV31" s="90"/>
+      <c r="FW31" s="90"/>
+      <c r="FX31" s="90"/>
+      <c r="FY31" s="90"/>
+      <c r="FZ31" s="90"/>
+      <c r="GA31" s="90"/>
+      <c r="GB31" s="90"/>
+      <c r="GC31" s="90"/>
+      <c r="GD31" s="90"/>
+      <c r="GE31" s="90"/>
+      <c r="GF31" s="90"/>
+      <c r="GG31" s="90"/>
+      <c r="GH31" s="90"/>
+      <c r="GI31" s="90"/>
+      <c r="GJ31" s="90"/>
+      <c r="GK31" s="90"/>
+      <c r="GL31" s="90"/>
+      <c r="GM31" s="90"/>
+      <c r="GN31" s="90"/>
+      <c r="GO31" s="90"/>
+      <c r="GP31" s="90"/>
+      <c r="GQ31" s="90"/>
+      <c r="GR31" s="90"/>
     </row>
-    <row r="32" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="32" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="83"/>
       <c r="B32" s="109" t="s">
         <v>44</v>
@@ -7979,7 +9463,7 @@
       </c>
       <c r="G32" s="88"/>
       <c r="H32" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I32" s="89"/>
@@ -8080,20 +9564,20 @@
       <c r="CZ32" s="89"/>
       <c r="DA32" s="89"/>
       <c r="DB32" s="89"/>
-      <c r="DC32" s="90"/>
-      <c r="DD32" s="90"/>
-      <c r="DE32" s="90"/>
-      <c r="DF32" s="90"/>
-      <c r="DG32" s="90"/>
-      <c r="DH32" s="90"/>
-      <c r="DI32" s="90"/>
-      <c r="DJ32" s="90"/>
-      <c r="DK32" s="90"/>
-      <c r="DL32" s="90"/>
-      <c r="DM32" s="90"/>
-      <c r="DN32" s="90"/>
-      <c r="DO32" s="90"/>
-      <c r="DP32" s="90"/>
+      <c r="DC32" s="89"/>
+      <c r="DD32" s="89"/>
+      <c r="DE32" s="89"/>
+      <c r="DF32" s="89"/>
+      <c r="DG32" s="89"/>
+      <c r="DH32" s="89"/>
+      <c r="DI32" s="89"/>
+      <c r="DJ32" s="89"/>
+      <c r="DK32" s="89"/>
+      <c r="DL32" s="89"/>
+      <c r="DM32" s="89"/>
+      <c r="DN32" s="89"/>
+      <c r="DO32" s="89"/>
+      <c r="DP32" s="89"/>
       <c r="DQ32" s="90"/>
       <c r="DR32" s="90"/>
       <c r="DS32" s="90"/>
@@ -8102,8 +9586,80 @@
       <c r="DV32" s="90"/>
       <c r="DW32" s="90"/>
       <c r="DX32" s="90"/>
+      <c r="DY32" s="90"/>
+      <c r="DZ32" s="90"/>
+      <c r="EA32" s="90"/>
+      <c r="EB32" s="90"/>
+      <c r="EC32" s="90"/>
+      <c r="ED32" s="90"/>
+      <c r="EE32" s="90"/>
+      <c r="EF32" s="90"/>
+      <c r="EG32" s="90"/>
+      <c r="EH32" s="90"/>
+      <c r="EI32" s="90"/>
+      <c r="EJ32" s="90"/>
+      <c r="EK32" s="90"/>
+      <c r="EL32" s="90"/>
+      <c r="EM32" s="90"/>
+      <c r="EN32" s="90"/>
+      <c r="EO32" s="90"/>
+      <c r="EP32" s="90"/>
+      <c r="EQ32" s="90"/>
+      <c r="ER32" s="90"/>
+      <c r="ES32" s="90"/>
+      <c r="ET32" s="90"/>
+      <c r="EU32" s="90"/>
+      <c r="EV32" s="90"/>
+      <c r="EW32" s="90"/>
+      <c r="EX32" s="90"/>
+      <c r="EY32" s="90"/>
+      <c r="EZ32" s="90"/>
+      <c r="FA32" s="90"/>
+      <c r="FB32" s="90"/>
+      <c r="FC32" s="90"/>
+      <c r="FD32" s="90"/>
+      <c r="FE32" s="90"/>
+      <c r="FF32" s="90"/>
+      <c r="FG32" s="90"/>
+      <c r="FH32" s="90"/>
+      <c r="FI32" s="90"/>
+      <c r="FJ32" s="90"/>
+      <c r="FK32" s="90"/>
+      <c r="FL32" s="90"/>
+      <c r="FM32" s="90"/>
+      <c r="FN32" s="90"/>
+      <c r="FO32" s="90"/>
+      <c r="FP32" s="90"/>
+      <c r="FQ32" s="90"/>
+      <c r="FR32" s="90"/>
+      <c r="FS32" s="90"/>
+      <c r="FT32" s="90"/>
+      <c r="FU32" s="90"/>
+      <c r="FV32" s="90"/>
+      <c r="FW32" s="90"/>
+      <c r="FX32" s="90"/>
+      <c r="FY32" s="90"/>
+      <c r="FZ32" s="90"/>
+      <c r="GA32" s="90"/>
+      <c r="GB32" s="90"/>
+      <c r="GC32" s="90"/>
+      <c r="GD32" s="90"/>
+      <c r="GE32" s="90"/>
+      <c r="GF32" s="90"/>
+      <c r="GG32" s="90"/>
+      <c r="GH32" s="90"/>
+      <c r="GI32" s="90"/>
+      <c r="GJ32" s="90"/>
+      <c r="GK32" s="90"/>
+      <c r="GL32" s="90"/>
+      <c r="GM32" s="90"/>
+      <c r="GN32" s="90"/>
+      <c r="GO32" s="90"/>
+      <c r="GP32" s="90"/>
+      <c r="GQ32" s="90"/>
+      <c r="GR32" s="90"/>
     </row>
-    <row r="33" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="33" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="83"/>
       <c r="B33" s="109" t="s">
         <v>45</v>
@@ -8120,7 +9676,7 @@
       </c>
       <c r="G33" s="88"/>
       <c r="H33" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I33" s="89"/>
@@ -8221,20 +9777,20 @@
       <c r="CZ33" s="89"/>
       <c r="DA33" s="89"/>
       <c r="DB33" s="89"/>
-      <c r="DC33" s="90"/>
-      <c r="DD33" s="90"/>
-      <c r="DE33" s="90"/>
-      <c r="DF33" s="90"/>
-      <c r="DG33" s="90"/>
-      <c r="DH33" s="90"/>
-      <c r="DI33" s="90"/>
-      <c r="DJ33" s="90"/>
-      <c r="DK33" s="90"/>
-      <c r="DL33" s="90"/>
-      <c r="DM33" s="90"/>
-      <c r="DN33" s="90"/>
-      <c r="DO33" s="90"/>
-      <c r="DP33" s="90"/>
+      <c r="DC33" s="89"/>
+      <c r="DD33" s="89"/>
+      <c r="DE33" s="89"/>
+      <c r="DF33" s="89"/>
+      <c r="DG33" s="89"/>
+      <c r="DH33" s="89"/>
+      <c r="DI33" s="89"/>
+      <c r="DJ33" s="89"/>
+      <c r="DK33" s="89"/>
+      <c r="DL33" s="89"/>
+      <c r="DM33" s="89"/>
+      <c r="DN33" s="89"/>
+      <c r="DO33" s="89"/>
+      <c r="DP33" s="89"/>
       <c r="DQ33" s="90"/>
       <c r="DR33" s="90"/>
       <c r="DS33" s="90"/>
@@ -8243,8 +9799,80 @@
       <c r="DV33" s="90"/>
       <c r="DW33" s="90"/>
       <c r="DX33" s="90"/>
+      <c r="DY33" s="90"/>
+      <c r="DZ33" s="90"/>
+      <c r="EA33" s="90"/>
+      <c r="EB33" s="90"/>
+      <c r="EC33" s="90"/>
+      <c r="ED33" s="90"/>
+      <c r="EE33" s="90"/>
+      <c r="EF33" s="90"/>
+      <c r="EG33" s="90"/>
+      <c r="EH33" s="90"/>
+      <c r="EI33" s="90"/>
+      <c r="EJ33" s="90"/>
+      <c r="EK33" s="90"/>
+      <c r="EL33" s="90"/>
+      <c r="EM33" s="90"/>
+      <c r="EN33" s="90"/>
+      <c r="EO33" s="90"/>
+      <c r="EP33" s="90"/>
+      <c r="EQ33" s="90"/>
+      <c r="ER33" s="90"/>
+      <c r="ES33" s="90"/>
+      <c r="ET33" s="90"/>
+      <c r="EU33" s="90"/>
+      <c r="EV33" s="90"/>
+      <c r="EW33" s="90"/>
+      <c r="EX33" s="90"/>
+      <c r="EY33" s="90"/>
+      <c r="EZ33" s="90"/>
+      <c r="FA33" s="90"/>
+      <c r="FB33" s="90"/>
+      <c r="FC33" s="90"/>
+      <c r="FD33" s="90"/>
+      <c r="FE33" s="90"/>
+      <c r="FF33" s="90"/>
+      <c r="FG33" s="90"/>
+      <c r="FH33" s="90"/>
+      <c r="FI33" s="90"/>
+      <c r="FJ33" s="90"/>
+      <c r="FK33" s="90"/>
+      <c r="FL33" s="90"/>
+      <c r="FM33" s="90"/>
+      <c r="FN33" s="90"/>
+      <c r="FO33" s="90"/>
+      <c r="FP33" s="90"/>
+      <c r="FQ33" s="90"/>
+      <c r="FR33" s="90"/>
+      <c r="FS33" s="90"/>
+      <c r="FT33" s="90"/>
+      <c r="FU33" s="90"/>
+      <c r="FV33" s="90"/>
+      <c r="FW33" s="90"/>
+      <c r="FX33" s="90"/>
+      <c r="FY33" s="90"/>
+      <c r="FZ33" s="90"/>
+      <c r="GA33" s="90"/>
+      <c r="GB33" s="90"/>
+      <c r="GC33" s="90"/>
+      <c r="GD33" s="90"/>
+      <c r="GE33" s="90"/>
+      <c r="GF33" s="90"/>
+      <c r="GG33" s="90"/>
+      <c r="GH33" s="90"/>
+      <c r="GI33" s="90"/>
+      <c r="GJ33" s="90"/>
+      <c r="GK33" s="90"/>
+      <c r="GL33" s="90"/>
+      <c r="GM33" s="90"/>
+      <c r="GN33" s="90"/>
+      <c r="GO33" s="90"/>
+      <c r="GP33" s="90"/>
+      <c r="GQ33" s="90"/>
+      <c r="GR33" s="90"/>
     </row>
-    <row r="34" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="34" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="83"/>
       <c r="B34" s="109" t="s">
         <v>46</v>
@@ -8261,7 +9889,7 @@
       </c>
       <c r="G34" s="88"/>
       <c r="H34" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I34" s="89"/>
@@ -8362,20 +9990,20 @@
       <c r="CZ34" s="89"/>
       <c r="DA34" s="89"/>
       <c r="DB34" s="89"/>
-      <c r="DC34" s="90"/>
-      <c r="DD34" s="90"/>
-      <c r="DE34" s="90"/>
-      <c r="DF34" s="90"/>
-      <c r="DG34" s="90"/>
-      <c r="DH34" s="90"/>
-      <c r="DI34" s="90"/>
-      <c r="DJ34" s="90"/>
-      <c r="DK34" s="90"/>
-      <c r="DL34" s="90"/>
-      <c r="DM34" s="90"/>
-      <c r="DN34" s="90"/>
-      <c r="DO34" s="90"/>
-      <c r="DP34" s="90"/>
+      <c r="DC34" s="89"/>
+      <c r="DD34" s="89"/>
+      <c r="DE34" s="89"/>
+      <c r="DF34" s="89"/>
+      <c r="DG34" s="89"/>
+      <c r="DH34" s="89"/>
+      <c r="DI34" s="89"/>
+      <c r="DJ34" s="89"/>
+      <c r="DK34" s="89"/>
+      <c r="DL34" s="89"/>
+      <c r="DM34" s="89"/>
+      <c r="DN34" s="89"/>
+      <c r="DO34" s="89"/>
+      <c r="DP34" s="89"/>
       <c r="DQ34" s="90"/>
       <c r="DR34" s="90"/>
       <c r="DS34" s="90"/>
@@ -8384,8 +10012,80 @@
       <c r="DV34" s="90"/>
       <c r="DW34" s="90"/>
       <c r="DX34" s="90"/>
+      <c r="DY34" s="90"/>
+      <c r="DZ34" s="90"/>
+      <c r="EA34" s="90"/>
+      <c r="EB34" s="90"/>
+      <c r="EC34" s="90"/>
+      <c r="ED34" s="90"/>
+      <c r="EE34" s="90"/>
+      <c r="EF34" s="90"/>
+      <c r="EG34" s="90"/>
+      <c r="EH34" s="90"/>
+      <c r="EI34" s="90"/>
+      <c r="EJ34" s="90"/>
+      <c r="EK34" s="90"/>
+      <c r="EL34" s="90"/>
+      <c r="EM34" s="90"/>
+      <c r="EN34" s="90"/>
+      <c r="EO34" s="90"/>
+      <c r="EP34" s="90"/>
+      <c r="EQ34" s="90"/>
+      <c r="ER34" s="90"/>
+      <c r="ES34" s="90"/>
+      <c r="ET34" s="90"/>
+      <c r="EU34" s="90"/>
+      <c r="EV34" s="90"/>
+      <c r="EW34" s="90"/>
+      <c r="EX34" s="90"/>
+      <c r="EY34" s="90"/>
+      <c r="EZ34" s="90"/>
+      <c r="FA34" s="90"/>
+      <c r="FB34" s="90"/>
+      <c r="FC34" s="90"/>
+      <c r="FD34" s="90"/>
+      <c r="FE34" s="90"/>
+      <c r="FF34" s="90"/>
+      <c r="FG34" s="90"/>
+      <c r="FH34" s="90"/>
+      <c r="FI34" s="90"/>
+      <c r="FJ34" s="90"/>
+      <c r="FK34" s="90"/>
+      <c r="FL34" s="90"/>
+      <c r="FM34" s="90"/>
+      <c r="FN34" s="90"/>
+      <c r="FO34" s="90"/>
+      <c r="FP34" s="90"/>
+      <c r="FQ34" s="90"/>
+      <c r="FR34" s="90"/>
+      <c r="FS34" s="90"/>
+      <c r="FT34" s="90"/>
+      <c r="FU34" s="90"/>
+      <c r="FV34" s="90"/>
+      <c r="FW34" s="90"/>
+      <c r="FX34" s="90"/>
+      <c r="FY34" s="90"/>
+      <c r="FZ34" s="90"/>
+      <c r="GA34" s="90"/>
+      <c r="GB34" s="90"/>
+      <c r="GC34" s="90"/>
+      <c r="GD34" s="90"/>
+      <c r="GE34" s="90"/>
+      <c r="GF34" s="90"/>
+      <c r="GG34" s="90"/>
+      <c r="GH34" s="90"/>
+      <c r="GI34" s="90"/>
+      <c r="GJ34" s="90"/>
+      <c r="GK34" s="90"/>
+      <c r="GL34" s="90"/>
+      <c r="GM34" s="90"/>
+      <c r="GN34" s="90"/>
+      <c r="GO34" s="90"/>
+      <c r="GP34" s="90"/>
+      <c r="GQ34" s="90"/>
+      <c r="GR34" s="90"/>
     </row>
-    <row r="35" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="35" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="83"/>
       <c r="B35" s="109" t="s">
         <v>47</v>
@@ -8402,7 +10102,7 @@
       </c>
       <c r="G35" s="88"/>
       <c r="H35" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I35" s="89"/>
@@ -8503,20 +10203,20 @@
       <c r="CZ35" s="89"/>
       <c r="DA35" s="89"/>
       <c r="DB35" s="89"/>
-      <c r="DC35" s="90"/>
-      <c r="DD35" s="90"/>
-      <c r="DE35" s="90"/>
-      <c r="DF35" s="90"/>
-      <c r="DG35" s="90"/>
-      <c r="DH35" s="90"/>
-      <c r="DI35" s="90"/>
-      <c r="DJ35" s="90"/>
-      <c r="DK35" s="90"/>
-      <c r="DL35" s="90"/>
-      <c r="DM35" s="90"/>
-      <c r="DN35" s="90"/>
-      <c r="DO35" s="90"/>
-      <c r="DP35" s="90"/>
+      <c r="DC35" s="89"/>
+      <c r="DD35" s="89"/>
+      <c r="DE35" s="89"/>
+      <c r="DF35" s="89"/>
+      <c r="DG35" s="89"/>
+      <c r="DH35" s="89"/>
+      <c r="DI35" s="89"/>
+      <c r="DJ35" s="89"/>
+      <c r="DK35" s="89"/>
+      <c r="DL35" s="89"/>
+      <c r="DM35" s="89"/>
+      <c r="DN35" s="89"/>
+      <c r="DO35" s="89"/>
+      <c r="DP35" s="89"/>
       <c r="DQ35" s="90"/>
       <c r="DR35" s="90"/>
       <c r="DS35" s="90"/>
@@ -8525,8 +10225,80 @@
       <c r="DV35" s="90"/>
       <c r="DW35" s="90"/>
       <c r="DX35" s="90"/>
+      <c r="DY35" s="90"/>
+      <c r="DZ35" s="90"/>
+      <c r="EA35" s="90"/>
+      <c r="EB35" s="90"/>
+      <c r="EC35" s="90"/>
+      <c r="ED35" s="90"/>
+      <c r="EE35" s="90"/>
+      <c r="EF35" s="90"/>
+      <c r="EG35" s="90"/>
+      <c r="EH35" s="90"/>
+      <c r="EI35" s="90"/>
+      <c r="EJ35" s="90"/>
+      <c r="EK35" s="90"/>
+      <c r="EL35" s="90"/>
+      <c r="EM35" s="90"/>
+      <c r="EN35" s="90"/>
+      <c r="EO35" s="90"/>
+      <c r="EP35" s="90"/>
+      <c r="EQ35" s="90"/>
+      <c r="ER35" s="90"/>
+      <c r="ES35" s="90"/>
+      <c r="ET35" s="90"/>
+      <c r="EU35" s="90"/>
+      <c r="EV35" s="90"/>
+      <c r="EW35" s="90"/>
+      <c r="EX35" s="90"/>
+      <c r="EY35" s="90"/>
+      <c r="EZ35" s="90"/>
+      <c r="FA35" s="90"/>
+      <c r="FB35" s="90"/>
+      <c r="FC35" s="90"/>
+      <c r="FD35" s="90"/>
+      <c r="FE35" s="90"/>
+      <c r="FF35" s="90"/>
+      <c r="FG35" s="90"/>
+      <c r="FH35" s="90"/>
+      <c r="FI35" s="90"/>
+      <c r="FJ35" s="90"/>
+      <c r="FK35" s="90"/>
+      <c r="FL35" s="90"/>
+      <c r="FM35" s="90"/>
+      <c r="FN35" s="90"/>
+      <c r="FO35" s="90"/>
+      <c r="FP35" s="90"/>
+      <c r="FQ35" s="90"/>
+      <c r="FR35" s="90"/>
+      <c r="FS35" s="90"/>
+      <c r="FT35" s="90"/>
+      <c r="FU35" s="90"/>
+      <c r="FV35" s="90"/>
+      <c r="FW35" s="90"/>
+      <c r="FX35" s="90"/>
+      <c r="FY35" s="90"/>
+      <c r="FZ35" s="90"/>
+      <c r="GA35" s="90"/>
+      <c r="GB35" s="90"/>
+      <c r="GC35" s="90"/>
+      <c r="GD35" s="90"/>
+      <c r="GE35" s="90"/>
+      <c r="GF35" s="90"/>
+      <c r="GG35" s="90"/>
+      <c r="GH35" s="90"/>
+      <c r="GI35" s="90"/>
+      <c r="GJ35" s="90"/>
+      <c r="GK35" s="90"/>
+      <c r="GL35" s="90"/>
+      <c r="GM35" s="90"/>
+      <c r="GN35" s="90"/>
+      <c r="GO35" s="90"/>
+      <c r="GP35" s="90"/>
+      <c r="GQ35" s="90"/>
+      <c r="GR35" s="90"/>
     </row>
-    <row r="36" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="36" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="60" t="s">
         <v>48</v>
@@ -8537,7 +10309,7 @@
       <c r="F36" s="114"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I36" s="17"/>
@@ -8638,8 +10410,22 @@
       <c r="CZ36" s="17"/>
       <c r="DA36" s="17"/>
       <c r="DB36" s="17"/>
+      <c r="DC36" s="17"/>
+      <c r="DD36" s="17"/>
+      <c r="DE36" s="17"/>
+      <c r="DF36" s="17"/>
+      <c r="DG36" s="17"/>
+      <c r="DH36" s="17"/>
+      <c r="DI36" s="17"/>
+      <c r="DJ36" s="17"/>
+      <c r="DK36" s="17"/>
+      <c r="DL36" s="17"/>
+      <c r="DM36" s="17"/>
+      <c r="DN36" s="17"/>
+      <c r="DO36" s="17"/>
+      <c r="DP36" s="17"/>
     </row>
-    <row r="37" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="37" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="57" t="s">
         <v>48</v>
@@ -8656,7 +10442,7 @@
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="I37" s="17"/>
@@ -8757,8 +10543,22 @@
       <c r="CZ37" s="17"/>
       <c r="DA37" s="17"/>
       <c r="DB37" s="17"/>
+      <c r="DC37" s="17"/>
+      <c r="DD37" s="17"/>
+      <c r="DE37" s="17"/>
+      <c r="DF37" s="17"/>
+      <c r="DG37" s="17"/>
+      <c r="DH37" s="17"/>
+      <c r="DI37" s="17"/>
+      <c r="DJ37" s="17"/>
+      <c r="DK37" s="17"/>
+      <c r="DL37" s="17"/>
+      <c r="DM37" s="17"/>
+      <c r="DN37" s="17"/>
+      <c r="DO37" s="17"/>
+      <c r="DP37" s="17"/>
     </row>
-    <row r="38" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="38" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="94"/>
       <c r="B38" s="116" t="s">
         <v>49</v>
@@ -8775,7 +10575,7 @@
       </c>
       <c r="G38" s="88"/>
       <c r="H38" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I38" s="89"/>
@@ -8876,20 +10676,20 @@
       <c r="CZ38" s="89"/>
       <c r="DA38" s="89"/>
       <c r="DB38" s="89"/>
-      <c r="DC38" s="90"/>
-      <c r="DD38" s="90"/>
-      <c r="DE38" s="90"/>
-      <c r="DF38" s="90"/>
-      <c r="DG38" s="90"/>
-      <c r="DH38" s="90"/>
-      <c r="DI38" s="90"/>
-      <c r="DJ38" s="90"/>
-      <c r="DK38" s="90"/>
-      <c r="DL38" s="90"/>
-      <c r="DM38" s="90"/>
-      <c r="DN38" s="90"/>
-      <c r="DO38" s="90"/>
-      <c r="DP38" s="90"/>
+      <c r="DC38" s="89"/>
+      <c r="DD38" s="89"/>
+      <c r="DE38" s="89"/>
+      <c r="DF38" s="89"/>
+      <c r="DG38" s="89"/>
+      <c r="DH38" s="89"/>
+      <c r="DI38" s="89"/>
+      <c r="DJ38" s="89"/>
+      <c r="DK38" s="89"/>
+      <c r="DL38" s="89"/>
+      <c r="DM38" s="89"/>
+      <c r="DN38" s="89"/>
+      <c r="DO38" s="89"/>
+      <c r="DP38" s="89"/>
       <c r="DQ38" s="90"/>
       <c r="DR38" s="90"/>
       <c r="DS38" s="90"/>
@@ -8898,8 +10698,80 @@
       <c r="DV38" s="90"/>
       <c r="DW38" s="90"/>
       <c r="DX38" s="90"/>
+      <c r="DY38" s="90"/>
+      <c r="DZ38" s="90"/>
+      <c r="EA38" s="90"/>
+      <c r="EB38" s="90"/>
+      <c r="EC38" s="90"/>
+      <c r="ED38" s="90"/>
+      <c r="EE38" s="90"/>
+      <c r="EF38" s="90"/>
+      <c r="EG38" s="90"/>
+      <c r="EH38" s="90"/>
+      <c r="EI38" s="90"/>
+      <c r="EJ38" s="90"/>
+      <c r="EK38" s="90"/>
+      <c r="EL38" s="90"/>
+      <c r="EM38" s="90"/>
+      <c r="EN38" s="90"/>
+      <c r="EO38" s="90"/>
+      <c r="EP38" s="90"/>
+      <c r="EQ38" s="90"/>
+      <c r="ER38" s="90"/>
+      <c r="ES38" s="90"/>
+      <c r="ET38" s="90"/>
+      <c r="EU38" s="90"/>
+      <c r="EV38" s="90"/>
+      <c r="EW38" s="90"/>
+      <c r="EX38" s="90"/>
+      <c r="EY38" s="90"/>
+      <c r="EZ38" s="90"/>
+      <c r="FA38" s="90"/>
+      <c r="FB38" s="90"/>
+      <c r="FC38" s="90"/>
+      <c r="FD38" s="90"/>
+      <c r="FE38" s="90"/>
+      <c r="FF38" s="90"/>
+      <c r="FG38" s="90"/>
+      <c r="FH38" s="90"/>
+      <c r="FI38" s="90"/>
+      <c r="FJ38" s="90"/>
+      <c r="FK38" s="90"/>
+      <c r="FL38" s="90"/>
+      <c r="FM38" s="90"/>
+      <c r="FN38" s="90"/>
+      <c r="FO38" s="90"/>
+      <c r="FP38" s="90"/>
+      <c r="FQ38" s="90"/>
+      <c r="FR38" s="90"/>
+      <c r="FS38" s="90"/>
+      <c r="FT38" s="90"/>
+      <c r="FU38" s="90"/>
+      <c r="FV38" s="90"/>
+      <c r="FW38" s="90"/>
+      <c r="FX38" s="90"/>
+      <c r="FY38" s="90"/>
+      <c r="FZ38" s="90"/>
+      <c r="GA38" s="90"/>
+      <c r="GB38" s="90"/>
+      <c r="GC38" s="90"/>
+      <c r="GD38" s="90"/>
+      <c r="GE38" s="90"/>
+      <c r="GF38" s="90"/>
+      <c r="GG38" s="90"/>
+      <c r="GH38" s="90"/>
+      <c r="GI38" s="90"/>
+      <c r="GJ38" s="90"/>
+      <c r="GK38" s="90"/>
+      <c r="GL38" s="90"/>
+      <c r="GM38" s="90"/>
+      <c r="GN38" s="90"/>
+      <c r="GO38" s="90"/>
+      <c r="GP38" s="90"/>
+      <c r="GQ38" s="90"/>
+      <c r="GR38" s="90"/>
     </row>
-    <row r="39" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="39" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="94"/>
       <c r="B39" s="116" t="s">
         <v>50</v>
@@ -8916,7 +10788,7 @@
       </c>
       <c r="G39" s="88"/>
       <c r="H39" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I39" s="89"/>
@@ -9017,20 +10889,20 @@
       <c r="CZ39" s="89"/>
       <c r="DA39" s="89"/>
       <c r="DB39" s="89"/>
-      <c r="DC39" s="90"/>
-      <c r="DD39" s="90"/>
-      <c r="DE39" s="90"/>
-      <c r="DF39" s="90"/>
-      <c r="DG39" s="90"/>
-      <c r="DH39" s="90"/>
-      <c r="DI39" s="90"/>
-      <c r="DJ39" s="90"/>
-      <c r="DK39" s="90"/>
-      <c r="DL39" s="90"/>
-      <c r="DM39" s="90"/>
-      <c r="DN39" s="90"/>
-      <c r="DO39" s="90"/>
-      <c r="DP39" s="90"/>
+      <c r="DC39" s="89"/>
+      <c r="DD39" s="89"/>
+      <c r="DE39" s="89"/>
+      <c r="DF39" s="89"/>
+      <c r="DG39" s="89"/>
+      <c r="DH39" s="89"/>
+      <c r="DI39" s="89"/>
+      <c r="DJ39" s="89"/>
+      <c r="DK39" s="89"/>
+      <c r="DL39" s="89"/>
+      <c r="DM39" s="89"/>
+      <c r="DN39" s="89"/>
+      <c r="DO39" s="89"/>
+      <c r="DP39" s="89"/>
       <c r="DQ39" s="90"/>
       <c r="DR39" s="90"/>
       <c r="DS39" s="90"/>
@@ -9039,8 +10911,80 @@
       <c r="DV39" s="90"/>
       <c r="DW39" s="90"/>
       <c r="DX39" s="90"/>
+      <c r="DY39" s="90"/>
+      <c r="DZ39" s="90"/>
+      <c r="EA39" s="90"/>
+      <c r="EB39" s="90"/>
+      <c r="EC39" s="90"/>
+      <c r="ED39" s="90"/>
+      <c r="EE39" s="90"/>
+      <c r="EF39" s="90"/>
+      <c r="EG39" s="90"/>
+      <c r="EH39" s="90"/>
+      <c r="EI39" s="90"/>
+      <c r="EJ39" s="90"/>
+      <c r="EK39" s="90"/>
+      <c r="EL39" s="90"/>
+      <c r="EM39" s="90"/>
+      <c r="EN39" s="90"/>
+      <c r="EO39" s="90"/>
+      <c r="EP39" s="90"/>
+      <c r="EQ39" s="90"/>
+      <c r="ER39" s="90"/>
+      <c r="ES39" s="90"/>
+      <c r="ET39" s="90"/>
+      <c r="EU39" s="90"/>
+      <c r="EV39" s="90"/>
+      <c r="EW39" s="90"/>
+      <c r="EX39" s="90"/>
+      <c r="EY39" s="90"/>
+      <c r="EZ39" s="90"/>
+      <c r="FA39" s="90"/>
+      <c r="FB39" s="90"/>
+      <c r="FC39" s="90"/>
+      <c r="FD39" s="90"/>
+      <c r="FE39" s="90"/>
+      <c r="FF39" s="90"/>
+      <c r="FG39" s="90"/>
+      <c r="FH39" s="90"/>
+      <c r="FI39" s="90"/>
+      <c r="FJ39" s="90"/>
+      <c r="FK39" s="90"/>
+      <c r="FL39" s="90"/>
+      <c r="FM39" s="90"/>
+      <c r="FN39" s="90"/>
+      <c r="FO39" s="90"/>
+      <c r="FP39" s="90"/>
+      <c r="FQ39" s="90"/>
+      <c r="FR39" s="90"/>
+      <c r="FS39" s="90"/>
+      <c r="FT39" s="90"/>
+      <c r="FU39" s="90"/>
+      <c r="FV39" s="90"/>
+      <c r="FW39" s="90"/>
+      <c r="FX39" s="90"/>
+      <c r="FY39" s="90"/>
+      <c r="FZ39" s="90"/>
+      <c r="GA39" s="90"/>
+      <c r="GB39" s="90"/>
+      <c r="GC39" s="90"/>
+      <c r="GD39" s="90"/>
+      <c r="GE39" s="90"/>
+      <c r="GF39" s="90"/>
+      <c r="GG39" s="90"/>
+      <c r="GH39" s="90"/>
+      <c r="GI39" s="90"/>
+      <c r="GJ39" s="90"/>
+      <c r="GK39" s="90"/>
+      <c r="GL39" s="90"/>
+      <c r="GM39" s="90"/>
+      <c r="GN39" s="90"/>
+      <c r="GO39" s="90"/>
+      <c r="GP39" s="90"/>
+      <c r="GQ39" s="90"/>
+      <c r="GR39" s="90"/>
     </row>
-    <row r="40" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="40" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="94"/>
       <c r="B40" s="116" t="s">
         <v>51</v>
@@ -9057,7 +11001,7 @@
       </c>
       <c r="G40" s="88"/>
       <c r="H40" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I40" s="89"/>
@@ -9158,20 +11102,20 @@
       <c r="CZ40" s="89"/>
       <c r="DA40" s="89"/>
       <c r="DB40" s="89"/>
-      <c r="DC40" s="90"/>
-      <c r="DD40" s="90"/>
-      <c r="DE40" s="90"/>
-      <c r="DF40" s="90"/>
-      <c r="DG40" s="90"/>
-      <c r="DH40" s="90"/>
-      <c r="DI40" s="90"/>
-      <c r="DJ40" s="90"/>
-      <c r="DK40" s="90"/>
-      <c r="DL40" s="90"/>
-      <c r="DM40" s="90"/>
-      <c r="DN40" s="90"/>
-      <c r="DO40" s="90"/>
-      <c r="DP40" s="90"/>
+      <c r="DC40" s="89"/>
+      <c r="DD40" s="89"/>
+      <c r="DE40" s="89"/>
+      <c r="DF40" s="89"/>
+      <c r="DG40" s="89"/>
+      <c r="DH40" s="89"/>
+      <c r="DI40" s="89"/>
+      <c r="DJ40" s="89"/>
+      <c r="DK40" s="89"/>
+      <c r="DL40" s="89"/>
+      <c r="DM40" s="89"/>
+      <c r="DN40" s="89"/>
+      <c r="DO40" s="89"/>
+      <c r="DP40" s="89"/>
       <c r="DQ40" s="90"/>
       <c r="DR40" s="90"/>
       <c r="DS40" s="90"/>
@@ -9180,8 +11124,80 @@
       <c r="DV40" s="90"/>
       <c r="DW40" s="90"/>
       <c r="DX40" s="90"/>
+      <c r="DY40" s="90"/>
+      <c r="DZ40" s="90"/>
+      <c r="EA40" s="90"/>
+      <c r="EB40" s="90"/>
+      <c r="EC40" s="90"/>
+      <c r="ED40" s="90"/>
+      <c r="EE40" s="90"/>
+      <c r="EF40" s="90"/>
+      <c r="EG40" s="90"/>
+      <c r="EH40" s="90"/>
+      <c r="EI40" s="90"/>
+      <c r="EJ40" s="90"/>
+      <c r="EK40" s="90"/>
+      <c r="EL40" s="90"/>
+      <c r="EM40" s="90"/>
+      <c r="EN40" s="90"/>
+      <c r="EO40" s="90"/>
+      <c r="EP40" s="90"/>
+      <c r="EQ40" s="90"/>
+      <c r="ER40" s="90"/>
+      <c r="ES40" s="90"/>
+      <c r="ET40" s="90"/>
+      <c r="EU40" s="90"/>
+      <c r="EV40" s="90"/>
+      <c r="EW40" s="90"/>
+      <c r="EX40" s="90"/>
+      <c r="EY40" s="90"/>
+      <c r="EZ40" s="90"/>
+      <c r="FA40" s="90"/>
+      <c r="FB40" s="90"/>
+      <c r="FC40" s="90"/>
+      <c r="FD40" s="90"/>
+      <c r="FE40" s="90"/>
+      <c r="FF40" s="90"/>
+      <c r="FG40" s="90"/>
+      <c r="FH40" s="90"/>
+      <c r="FI40" s="90"/>
+      <c r="FJ40" s="90"/>
+      <c r="FK40" s="90"/>
+      <c r="FL40" s="90"/>
+      <c r="FM40" s="90"/>
+      <c r="FN40" s="90"/>
+      <c r="FO40" s="90"/>
+      <c r="FP40" s="90"/>
+      <c r="FQ40" s="90"/>
+      <c r="FR40" s="90"/>
+      <c r="FS40" s="90"/>
+      <c r="FT40" s="90"/>
+      <c r="FU40" s="90"/>
+      <c r="FV40" s="90"/>
+      <c r="FW40" s="90"/>
+      <c r="FX40" s="90"/>
+      <c r="FY40" s="90"/>
+      <c r="FZ40" s="90"/>
+      <c r="GA40" s="90"/>
+      <c r="GB40" s="90"/>
+      <c r="GC40" s="90"/>
+      <c r="GD40" s="90"/>
+      <c r="GE40" s="90"/>
+      <c r="GF40" s="90"/>
+      <c r="GG40" s="90"/>
+      <c r="GH40" s="90"/>
+      <c r="GI40" s="90"/>
+      <c r="GJ40" s="90"/>
+      <c r="GK40" s="90"/>
+      <c r="GL40" s="90"/>
+      <c r="GM40" s="90"/>
+      <c r="GN40" s="90"/>
+      <c r="GO40" s="90"/>
+      <c r="GP40" s="90"/>
+      <c r="GQ40" s="90"/>
+      <c r="GR40" s="90"/>
     </row>
-    <row r="41" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="41" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="94"/>
       <c r="B41" s="116" t="s">
         <v>52</v>
@@ -9198,7 +11214,7 @@
       </c>
       <c r="G41" s="88"/>
       <c r="H41" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I41" s="89"/>
@@ -9299,20 +11315,20 @@
       <c r="CZ41" s="89"/>
       <c r="DA41" s="89"/>
       <c r="DB41" s="89"/>
-      <c r="DC41" s="90"/>
-      <c r="DD41" s="90"/>
-      <c r="DE41" s="90"/>
-      <c r="DF41" s="90"/>
-      <c r="DG41" s="90"/>
-      <c r="DH41" s="90"/>
-      <c r="DI41" s="90"/>
-      <c r="DJ41" s="90"/>
-      <c r="DK41" s="90"/>
-      <c r="DL41" s="90"/>
-      <c r="DM41" s="90"/>
-      <c r="DN41" s="90"/>
-      <c r="DO41" s="90"/>
-      <c r="DP41" s="90"/>
+      <c r="DC41" s="89"/>
+      <c r="DD41" s="89"/>
+      <c r="DE41" s="89"/>
+      <c r="DF41" s="89"/>
+      <c r="DG41" s="89"/>
+      <c r="DH41" s="89"/>
+      <c r="DI41" s="89"/>
+      <c r="DJ41" s="89"/>
+      <c r="DK41" s="89"/>
+      <c r="DL41" s="89"/>
+      <c r="DM41" s="89"/>
+      <c r="DN41" s="89"/>
+      <c r="DO41" s="89"/>
+      <c r="DP41" s="89"/>
       <c r="DQ41" s="90"/>
       <c r="DR41" s="90"/>
       <c r="DS41" s="90"/>
@@ -9321,8 +11337,80 @@
       <c r="DV41" s="90"/>
       <c r="DW41" s="90"/>
       <c r="DX41" s="90"/>
+      <c r="DY41" s="90"/>
+      <c r="DZ41" s="90"/>
+      <c r="EA41" s="90"/>
+      <c r="EB41" s="90"/>
+      <c r="EC41" s="90"/>
+      <c r="ED41" s="90"/>
+      <c r="EE41" s="90"/>
+      <c r="EF41" s="90"/>
+      <c r="EG41" s="90"/>
+      <c r="EH41" s="90"/>
+      <c r="EI41" s="90"/>
+      <c r="EJ41" s="90"/>
+      <c r="EK41" s="90"/>
+      <c r="EL41" s="90"/>
+      <c r="EM41" s="90"/>
+      <c r="EN41" s="90"/>
+      <c r="EO41" s="90"/>
+      <c r="EP41" s="90"/>
+      <c r="EQ41" s="90"/>
+      <c r="ER41" s="90"/>
+      <c r="ES41" s="90"/>
+      <c r="ET41" s="90"/>
+      <c r="EU41" s="90"/>
+      <c r="EV41" s="90"/>
+      <c r="EW41" s="90"/>
+      <c r="EX41" s="90"/>
+      <c r="EY41" s="90"/>
+      <c r="EZ41" s="90"/>
+      <c r="FA41" s="90"/>
+      <c r="FB41" s="90"/>
+      <c r="FC41" s="90"/>
+      <c r="FD41" s="90"/>
+      <c r="FE41" s="90"/>
+      <c r="FF41" s="90"/>
+      <c r="FG41" s="90"/>
+      <c r="FH41" s="90"/>
+      <c r="FI41" s="90"/>
+      <c r="FJ41" s="90"/>
+      <c r="FK41" s="90"/>
+      <c r="FL41" s="90"/>
+      <c r="FM41" s="90"/>
+      <c r="FN41" s="90"/>
+      <c r="FO41" s="90"/>
+      <c r="FP41" s="90"/>
+      <c r="FQ41" s="90"/>
+      <c r="FR41" s="90"/>
+      <c r="FS41" s="90"/>
+      <c r="FT41" s="90"/>
+      <c r="FU41" s="90"/>
+      <c r="FV41" s="90"/>
+      <c r="FW41" s="90"/>
+      <c r="FX41" s="90"/>
+      <c r="FY41" s="90"/>
+      <c r="FZ41" s="90"/>
+      <c r="GA41" s="90"/>
+      <c r="GB41" s="90"/>
+      <c r="GC41" s="90"/>
+      <c r="GD41" s="90"/>
+      <c r="GE41" s="90"/>
+      <c r="GF41" s="90"/>
+      <c r="GG41" s="90"/>
+      <c r="GH41" s="90"/>
+      <c r="GI41" s="90"/>
+      <c r="GJ41" s="90"/>
+      <c r="GK41" s="90"/>
+      <c r="GL41" s="90"/>
+      <c r="GM41" s="90"/>
+      <c r="GN41" s="90"/>
+      <c r="GO41" s="90"/>
+      <c r="GP41" s="90"/>
+      <c r="GQ41" s="90"/>
+      <c r="GR41" s="90"/>
     </row>
-    <row r="42" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="42" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="94"/>
       <c r="B42" s="116" t="s">
         <v>53</v>
@@ -9339,7 +11427,7 @@
       </c>
       <c r="G42" s="88"/>
       <c r="H42" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I42" s="89"/>
@@ -9440,20 +11528,20 @@
       <c r="CZ42" s="89"/>
       <c r="DA42" s="89"/>
       <c r="DB42" s="89"/>
-      <c r="DC42" s="90"/>
-      <c r="DD42" s="90"/>
-      <c r="DE42" s="90"/>
-      <c r="DF42" s="90"/>
-      <c r="DG42" s="90"/>
-      <c r="DH42" s="90"/>
-      <c r="DI42" s="90"/>
-      <c r="DJ42" s="90"/>
-      <c r="DK42" s="90"/>
-      <c r="DL42" s="90"/>
-      <c r="DM42" s="90"/>
-      <c r="DN42" s="90"/>
-      <c r="DO42" s="90"/>
-      <c r="DP42" s="90"/>
+      <c r="DC42" s="89"/>
+      <c r="DD42" s="89"/>
+      <c r="DE42" s="89"/>
+      <c r="DF42" s="89"/>
+      <c r="DG42" s="89"/>
+      <c r="DH42" s="89"/>
+      <c r="DI42" s="89"/>
+      <c r="DJ42" s="89"/>
+      <c r="DK42" s="89"/>
+      <c r="DL42" s="89"/>
+      <c r="DM42" s="89"/>
+      <c r="DN42" s="89"/>
+      <c r="DO42" s="89"/>
+      <c r="DP42" s="89"/>
       <c r="DQ42" s="90"/>
       <c r="DR42" s="90"/>
       <c r="DS42" s="90"/>
@@ -9462,8 +11550,80 @@
       <c r="DV42" s="90"/>
       <c r="DW42" s="90"/>
       <c r="DX42" s="90"/>
+      <c r="DY42" s="90"/>
+      <c r="DZ42" s="90"/>
+      <c r="EA42" s="90"/>
+      <c r="EB42" s="90"/>
+      <c r="EC42" s="90"/>
+      <c r="ED42" s="90"/>
+      <c r="EE42" s="90"/>
+      <c r="EF42" s="90"/>
+      <c r="EG42" s="90"/>
+      <c r="EH42" s="90"/>
+      <c r="EI42" s="90"/>
+      <c r="EJ42" s="90"/>
+      <c r="EK42" s="90"/>
+      <c r="EL42" s="90"/>
+      <c r="EM42" s="90"/>
+      <c r="EN42" s="90"/>
+      <c r="EO42" s="90"/>
+      <c r="EP42" s="90"/>
+      <c r="EQ42" s="90"/>
+      <c r="ER42" s="90"/>
+      <c r="ES42" s="90"/>
+      <c r="ET42" s="90"/>
+      <c r="EU42" s="90"/>
+      <c r="EV42" s="90"/>
+      <c r="EW42" s="90"/>
+      <c r="EX42" s="90"/>
+      <c r="EY42" s="90"/>
+      <c r="EZ42" s="90"/>
+      <c r="FA42" s="90"/>
+      <c r="FB42" s="90"/>
+      <c r="FC42" s="90"/>
+      <c r="FD42" s="90"/>
+      <c r="FE42" s="90"/>
+      <c r="FF42" s="90"/>
+      <c r="FG42" s="90"/>
+      <c r="FH42" s="90"/>
+      <c r="FI42" s="90"/>
+      <c r="FJ42" s="90"/>
+      <c r="FK42" s="90"/>
+      <c r="FL42" s="90"/>
+      <c r="FM42" s="90"/>
+      <c r="FN42" s="90"/>
+      <c r="FO42" s="90"/>
+      <c r="FP42" s="90"/>
+      <c r="FQ42" s="90"/>
+      <c r="FR42" s="90"/>
+      <c r="FS42" s="90"/>
+      <c r="FT42" s="90"/>
+      <c r="FU42" s="90"/>
+      <c r="FV42" s="90"/>
+      <c r="FW42" s="90"/>
+      <c r="FX42" s="90"/>
+      <c r="FY42" s="90"/>
+      <c r="FZ42" s="90"/>
+      <c r="GA42" s="90"/>
+      <c r="GB42" s="90"/>
+      <c r="GC42" s="90"/>
+      <c r="GD42" s="90"/>
+      <c r="GE42" s="90"/>
+      <c r="GF42" s="90"/>
+      <c r="GG42" s="90"/>
+      <c r="GH42" s="90"/>
+      <c r="GI42" s="90"/>
+      <c r="GJ42" s="90"/>
+      <c r="GK42" s="90"/>
+      <c r="GL42" s="90"/>
+      <c r="GM42" s="90"/>
+      <c r="GN42" s="90"/>
+      <c r="GO42" s="90"/>
+      <c r="GP42" s="90"/>
+      <c r="GQ42" s="90"/>
+      <c r="GR42" s="90"/>
     </row>
-    <row r="43" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="43" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="94"/>
       <c r="B43" s="116" t="s">
         <v>54</v>
@@ -9480,7 +11640,7 @@
       </c>
       <c r="G43" s="88"/>
       <c r="H43" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I43" s="89"/>
@@ -9581,20 +11741,20 @@
       <c r="CZ43" s="89"/>
       <c r="DA43" s="89"/>
       <c r="DB43" s="89"/>
-      <c r="DC43" s="90"/>
-      <c r="DD43" s="90"/>
-      <c r="DE43" s="90"/>
-      <c r="DF43" s="90"/>
-      <c r="DG43" s="90"/>
-      <c r="DH43" s="90"/>
-      <c r="DI43" s="90"/>
-      <c r="DJ43" s="90"/>
-      <c r="DK43" s="90"/>
-      <c r="DL43" s="90"/>
-      <c r="DM43" s="90"/>
-      <c r="DN43" s="90"/>
-      <c r="DO43" s="90"/>
-      <c r="DP43" s="90"/>
+      <c r="DC43" s="89"/>
+      <c r="DD43" s="89"/>
+      <c r="DE43" s="89"/>
+      <c r="DF43" s="89"/>
+      <c r="DG43" s="89"/>
+      <c r="DH43" s="89"/>
+      <c r="DI43" s="89"/>
+      <c r="DJ43" s="89"/>
+      <c r="DK43" s="89"/>
+      <c r="DL43" s="89"/>
+      <c r="DM43" s="89"/>
+      <c r="DN43" s="89"/>
+      <c r="DO43" s="89"/>
+      <c r="DP43" s="89"/>
       <c r="DQ43" s="90"/>
       <c r="DR43" s="90"/>
       <c r="DS43" s="90"/>
@@ -9603,8 +11763,80 @@
       <c r="DV43" s="90"/>
       <c r="DW43" s="90"/>
       <c r="DX43" s="90"/>
+      <c r="DY43" s="90"/>
+      <c r="DZ43" s="90"/>
+      <c r="EA43" s="90"/>
+      <c r="EB43" s="90"/>
+      <c r="EC43" s="90"/>
+      <c r="ED43" s="90"/>
+      <c r="EE43" s="90"/>
+      <c r="EF43" s="90"/>
+      <c r="EG43" s="90"/>
+      <c r="EH43" s="90"/>
+      <c r="EI43" s="90"/>
+      <c r="EJ43" s="90"/>
+      <c r="EK43" s="90"/>
+      <c r="EL43" s="90"/>
+      <c r="EM43" s="90"/>
+      <c r="EN43" s="90"/>
+      <c r="EO43" s="90"/>
+      <c r="EP43" s="90"/>
+      <c r="EQ43" s="90"/>
+      <c r="ER43" s="90"/>
+      <c r="ES43" s="90"/>
+      <c r="ET43" s="90"/>
+      <c r="EU43" s="90"/>
+      <c r="EV43" s="90"/>
+      <c r="EW43" s="90"/>
+      <c r="EX43" s="90"/>
+      <c r="EY43" s="90"/>
+      <c r="EZ43" s="90"/>
+      <c r="FA43" s="90"/>
+      <c r="FB43" s="90"/>
+      <c r="FC43" s="90"/>
+      <c r="FD43" s="90"/>
+      <c r="FE43" s="90"/>
+      <c r="FF43" s="90"/>
+      <c r="FG43" s="90"/>
+      <c r="FH43" s="90"/>
+      <c r="FI43" s="90"/>
+      <c r="FJ43" s="90"/>
+      <c r="FK43" s="90"/>
+      <c r="FL43" s="90"/>
+      <c r="FM43" s="90"/>
+      <c r="FN43" s="90"/>
+      <c r="FO43" s="90"/>
+      <c r="FP43" s="90"/>
+      <c r="FQ43" s="90"/>
+      <c r="FR43" s="90"/>
+      <c r="FS43" s="90"/>
+      <c r="FT43" s="90"/>
+      <c r="FU43" s="90"/>
+      <c r="FV43" s="90"/>
+      <c r="FW43" s="90"/>
+      <c r="FX43" s="90"/>
+      <c r="FY43" s="90"/>
+      <c r="FZ43" s="90"/>
+      <c r="GA43" s="90"/>
+      <c r="GB43" s="90"/>
+      <c r="GC43" s="90"/>
+      <c r="GD43" s="90"/>
+      <c r="GE43" s="90"/>
+      <c r="GF43" s="90"/>
+      <c r="GG43" s="90"/>
+      <c r="GH43" s="90"/>
+      <c r="GI43" s="90"/>
+      <c r="GJ43" s="90"/>
+      <c r="GK43" s="90"/>
+      <c r="GL43" s="90"/>
+      <c r="GM43" s="90"/>
+      <c r="GN43" s="90"/>
+      <c r="GO43" s="90"/>
+      <c r="GP43" s="90"/>
+      <c r="GQ43" s="90"/>
+      <c r="GR43" s="90"/>
     </row>
-    <row r="44" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="44" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="63" t="s">
         <v>55</v>
@@ -9615,7 +11847,7 @@
       <c r="F44" s="121"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I44" s="17"/>
@@ -9716,8 +11948,22 @@
       <c r="CZ44" s="17"/>
       <c r="DA44" s="17"/>
       <c r="DB44" s="17"/>
+      <c r="DC44" s="17"/>
+      <c r="DD44" s="17"/>
+      <c r="DE44" s="17"/>
+      <c r="DF44" s="17"/>
+      <c r="DG44" s="17"/>
+      <c r="DH44" s="17"/>
+      <c r="DI44" s="17"/>
+      <c r="DJ44" s="17"/>
+      <c r="DK44" s="17"/>
+      <c r="DL44" s="17"/>
+      <c r="DM44" s="17"/>
+      <c r="DN44" s="17"/>
+      <c r="DO44" s="17"/>
+      <c r="DP44" s="17"/>
     </row>
-    <row r="45" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="45" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="66" t="s">
         <v>55</v>
@@ -9730,7 +11976,7 @@
       <c r="F45" s="122"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I45" s="17"/>
@@ -9831,8 +12077,22 @@
       <c r="CZ45" s="17"/>
       <c r="DA45" s="17"/>
       <c r="DB45" s="17"/>
+      <c r="DC45" s="17"/>
+      <c r="DD45" s="17"/>
+      <c r="DE45" s="17"/>
+      <c r="DF45" s="17"/>
+      <c r="DG45" s="17"/>
+      <c r="DH45" s="17"/>
+      <c r="DI45" s="17"/>
+      <c r="DJ45" s="17"/>
+      <c r="DK45" s="17"/>
+      <c r="DL45" s="17"/>
+      <c r="DM45" s="17"/>
+      <c r="DN45" s="17"/>
+      <c r="DO45" s="17"/>
+      <c r="DP45" s="17"/>
     </row>
-    <row r="46" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="46" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="71" t="s">
         <v>56</v>
@@ -9843,7 +12103,7 @@
       <c r="F46" s="124"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I46" s="17"/>
@@ -9944,8 +12204,22 @@
       <c r="CZ46" s="17"/>
       <c r="DA46" s="17"/>
       <c r="DB46" s="17"/>
+      <c r="DC46" s="17"/>
+      <c r="DD46" s="17"/>
+      <c r="DE46" s="17"/>
+      <c r="DF46" s="17"/>
+      <c r="DG46" s="17"/>
+      <c r="DH46" s="17"/>
+      <c r="DI46" s="17"/>
+      <c r="DJ46" s="17"/>
+      <c r="DK46" s="17"/>
+      <c r="DL46" s="17"/>
+      <c r="DM46" s="17"/>
+      <c r="DN46" s="17"/>
+      <c r="DO46" s="17"/>
+      <c r="DP46" s="17"/>
     </row>
-    <row r="47" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="47" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="74" t="s">
         <v>57</v>
@@ -9956,7 +12230,7 @@
       <c r="F47" s="125"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I47" s="17"/>
@@ -10057,73 +12331,87 @@
       <c r="CZ47" s="17"/>
       <c r="DA47" s="17"/>
       <c r="DB47" s="17"/>
+      <c r="DC47" s="17"/>
+      <c r="DD47" s="17"/>
+      <c r="DE47" s="17"/>
+      <c r="DF47" s="17"/>
+      <c r="DG47" s="17"/>
+      <c r="DH47" s="17"/>
+      <c r="DI47" s="17"/>
+      <c r="DJ47" s="17"/>
+      <c r="DK47" s="17"/>
+      <c r="DL47" s="17"/>
+      <c r="DM47" s="17"/>
+      <c r="DN47" s="17"/>
+      <c r="DO47" s="17"/>
+      <c r="DP47" s="17"/>
     </row>
-    <row r="48" spans="1:128" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="48" spans="1:200" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="G48" s="69"/>
       <c r="H48" s="69"/>
     </row>
-    <row r="49" spans="1:106" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="49" spans="1:120" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="G49" s="69"/>
       <c r="H49" s="69"/>
     </row>
-    <row r="50" spans="1:106" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="50" spans="1:120" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="G50" s="69"/>
       <c r="H50" s="69"/>
     </row>
-    <row r="51" spans="1:106" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="51" spans="1:120" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="G51" s="69"/>
       <c r="H51" s="69"/>
     </row>
-    <row r="52" spans="1:106" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="52" spans="1:120" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="G52" s="69"/>
       <c r="H52" s="69"/>
     </row>
-    <row r="53" spans="1:106" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="53" spans="1:120" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="G53" s="69"/>
       <c r="H53" s="69"/>
     </row>
-    <row r="54" spans="1:106" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="54" spans="1:120" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="G54" s="69"/>
       <c r="H54" s="69"/>
     </row>
-    <row r="55" spans="1:106" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="55" spans="1:120" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="G55" s="69"/>
       <c r="H55" s="69"/>
     </row>
-    <row r="56" spans="1:106" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="56" spans="1:120" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="G56" s="69"/>
       <c r="H56" s="69"/>
     </row>
-    <row r="57" spans="1:106" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="57" spans="1:120" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="G57" s="69"/>
       <c r="H57" s="69"/>
     </row>
-    <row r="58" spans="1:106" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="58" spans="1:120" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="G58" s="69"/>
       <c r="H58" s="69"/>
     </row>
-    <row r="59" spans="1:106" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="59" spans="1:120" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="G59" s="69"/>
       <c r="H59" s="69"/>
     </row>
-    <row r="60" spans="1:106" s="70" customFormat="1" ht="30" customHeight="1">
+    <row r="60" spans="1:120" s="70" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="G60" s="69"/>
       <c r="H60" s="69"/>
     </row>
-    <row r="61" spans="1:106" ht="30" customHeight="1">
+    <row r="61" spans="1:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G61" s="69"/>
       <c r="H61" s="69"/>
       <c r="I61" s="70"/>
@@ -10224,8 +12512,22 @@
       <c r="CZ61" s="70"/>
       <c r="DA61" s="70"/>
       <c r="DB61" s="70"/>
+      <c r="DC61" s="70"/>
+      <c r="DD61" s="70"/>
+      <c r="DE61" s="70"/>
+      <c r="DF61" s="70"/>
+      <c r="DG61" s="70"/>
+      <c r="DH61" s="70"/>
+      <c r="DI61" s="70"/>
+      <c r="DJ61" s="70"/>
+      <c r="DK61" s="70"/>
+      <c r="DL61" s="70"/>
+      <c r="DM61" s="70"/>
+      <c r="DN61" s="70"/>
+      <c r="DO61" s="70"/>
+      <c r="DP61" s="70"/>
     </row>
-    <row r="62" spans="1:106" ht="30" customHeight="1">
+    <row r="62" spans="1:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G62" s="69"/>
       <c r="H62" s="69"/>
       <c r="I62" s="70"/>
@@ -10326,8 +12628,22 @@
       <c r="CZ62" s="70"/>
       <c r="DA62" s="70"/>
       <c r="DB62" s="70"/>
+      <c r="DC62" s="70"/>
+      <c r="DD62" s="70"/>
+      <c r="DE62" s="70"/>
+      <c r="DF62" s="70"/>
+      <c r="DG62" s="70"/>
+      <c r="DH62" s="70"/>
+      <c r="DI62" s="70"/>
+      <c r="DJ62" s="70"/>
+      <c r="DK62" s="70"/>
+      <c r="DL62" s="70"/>
+      <c r="DM62" s="70"/>
+      <c r="DN62" s="70"/>
+      <c r="DO62" s="70"/>
+      <c r="DP62" s="70"/>
     </row>
-    <row r="63" spans="1:106" ht="30" customHeight="1">
+    <row r="63" spans="1:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G63" s="69"/>
       <c r="H63" s="69"/>
       <c r="I63" s="70"/>
@@ -10428,8 +12744,22 @@
       <c r="CZ63" s="70"/>
       <c r="DA63" s="70"/>
       <c r="DB63" s="70"/>
+      <c r="DC63" s="70"/>
+      <c r="DD63" s="70"/>
+      <c r="DE63" s="70"/>
+      <c r="DF63" s="70"/>
+      <c r="DG63" s="70"/>
+      <c r="DH63" s="70"/>
+      <c r="DI63" s="70"/>
+      <c r="DJ63" s="70"/>
+      <c r="DK63" s="70"/>
+      <c r="DL63" s="70"/>
+      <c r="DM63" s="70"/>
+      <c r="DN63" s="70"/>
+      <c r="DO63" s="70"/>
+      <c r="DP63" s="70"/>
     </row>
-    <row r="64" spans="1:106" ht="15">
+    <row r="64" spans="1:120" ht="15" x14ac:dyDescent="0.2">
       <c r="G64" s="69"/>
       <c r="H64" s="69"/>
       <c r="I64" s="70"/>
@@ -10530,8 +12860,22 @@
       <c r="CZ64" s="70"/>
       <c r="DA64" s="70"/>
       <c r="DB64" s="70"/>
+      <c r="DC64" s="70"/>
+      <c r="DD64" s="70"/>
+      <c r="DE64" s="70"/>
+      <c r="DF64" s="70"/>
+      <c r="DG64" s="70"/>
+      <c r="DH64" s="70"/>
+      <c r="DI64" s="70"/>
+      <c r="DJ64" s="70"/>
+      <c r="DK64" s="70"/>
+      <c r="DL64" s="70"/>
+      <c r="DM64" s="70"/>
+      <c r="DN64" s="70"/>
+      <c r="DO64" s="70"/>
+      <c r="DP64" s="70"/>
     </row>
-    <row r="65" spans="1:106" ht="15">
+    <row r="65" spans="1:120" ht="15" x14ac:dyDescent="0.2">
       <c r="G65" s="69"/>
       <c r="H65" s="69"/>
       <c r="I65" s="70"/>
@@ -10632,8 +12976,22 @@
       <c r="CZ65" s="70"/>
       <c r="DA65" s="70"/>
       <c r="DB65" s="70"/>
+      <c r="DC65" s="70"/>
+      <c r="DD65" s="70"/>
+      <c r="DE65" s="70"/>
+      <c r="DF65" s="70"/>
+      <c r="DG65" s="70"/>
+      <c r="DH65" s="70"/>
+      <c r="DI65" s="70"/>
+      <c r="DJ65" s="70"/>
+      <c r="DK65" s="70"/>
+      <c r="DL65" s="70"/>
+      <c r="DM65" s="70"/>
+      <c r="DN65" s="70"/>
+      <c r="DO65" s="70"/>
+      <c r="DP65" s="70"/>
     </row>
-    <row r="66" spans="1:106" ht="15">
+    <row r="66" spans="1:120" ht="15" x14ac:dyDescent="0.2">
       <c r="G66" s="69"/>
       <c r="H66" s="69"/>
       <c r="I66" s="70"/>
@@ -10734,8 +13092,22 @@
       <c r="CZ66" s="70"/>
       <c r="DA66" s="70"/>
       <c r="DB66" s="70"/>
+      <c r="DC66" s="70"/>
+      <c r="DD66" s="70"/>
+      <c r="DE66" s="70"/>
+      <c r="DF66" s="70"/>
+      <c r="DG66" s="70"/>
+      <c r="DH66" s="70"/>
+      <c r="DI66" s="70"/>
+      <c r="DJ66" s="70"/>
+      <c r="DK66" s="70"/>
+      <c r="DL66" s="70"/>
+      <c r="DM66" s="70"/>
+      <c r="DN66" s="70"/>
+      <c r="DO66" s="70"/>
+      <c r="DP66" s="70"/>
     </row>
-    <row r="67" spans="1:106" ht="15">
+    <row r="67" spans="1:120" ht="15" x14ac:dyDescent="0.2">
       <c r="G67" s="69"/>
       <c r="H67" s="69"/>
       <c r="I67" s="70"/>
@@ -10836,8 +13208,22 @@
       <c r="CZ67" s="70"/>
       <c r="DA67" s="70"/>
       <c r="DB67" s="70"/>
+      <c r="DC67" s="70"/>
+      <c r="DD67" s="70"/>
+      <c r="DE67" s="70"/>
+      <c r="DF67" s="70"/>
+      <c r="DG67" s="70"/>
+      <c r="DH67" s="70"/>
+      <c r="DI67" s="70"/>
+      <c r="DJ67" s="70"/>
+      <c r="DK67" s="70"/>
+      <c r="DL67" s="70"/>
+      <c r="DM67" s="70"/>
+      <c r="DN67" s="70"/>
+      <c r="DO67" s="70"/>
+      <c r="DP67" s="70"/>
     </row>
-    <row r="68" spans="1:106" ht="15">
+    <row r="68" spans="1:120" ht="15" x14ac:dyDescent="0.2">
       <c r="G68" s="69"/>
       <c r="H68" s="69"/>
       <c r="I68" s="70"/>
@@ -10938,8 +13324,22 @@
       <c r="CZ68" s="70"/>
       <c r="DA68" s="70"/>
       <c r="DB68" s="70"/>
+      <c r="DC68" s="70"/>
+      <c r="DD68" s="70"/>
+      <c r="DE68" s="70"/>
+      <c r="DF68" s="70"/>
+      <c r="DG68" s="70"/>
+      <c r="DH68" s="70"/>
+      <c r="DI68" s="70"/>
+      <c r="DJ68" s="70"/>
+      <c r="DK68" s="70"/>
+      <c r="DL68" s="70"/>
+      <c r="DM68" s="70"/>
+      <c r="DN68" s="70"/>
+      <c r="DO68" s="70"/>
+      <c r="DP68" s="70"/>
     </row>
-    <row r="69" spans="1:106" ht="15">
+    <row r="69" spans="1:120" ht="15" x14ac:dyDescent="0.2">
       <c r="G69" s="69"/>
       <c r="H69" s="69"/>
       <c r="I69" s="70"/>
@@ -11040,8 +13440,22 @@
       <c r="CZ69" s="70"/>
       <c r="DA69" s="70"/>
       <c r="DB69" s="70"/>
+      <c r="DC69" s="70"/>
+      <c r="DD69" s="70"/>
+      <c r="DE69" s="70"/>
+      <c r="DF69" s="70"/>
+      <c r="DG69" s="70"/>
+      <c r="DH69" s="70"/>
+      <c r="DI69" s="70"/>
+      <c r="DJ69" s="70"/>
+      <c r="DK69" s="70"/>
+      <c r="DL69" s="70"/>
+      <c r="DM69" s="70"/>
+      <c r="DN69" s="70"/>
+      <c r="DO69" s="70"/>
+      <c r="DP69" s="70"/>
     </row>
-    <row r="70" spans="1:106" ht="15">
+    <row r="70" spans="1:120" ht="15" x14ac:dyDescent="0.2">
       <c r="G70" s="69"/>
       <c r="H70" s="69"/>
       <c r="I70" s="70"/>
@@ -11142,8 +13556,22 @@
       <c r="CZ70" s="70"/>
       <c r="DA70" s="70"/>
       <c r="DB70" s="70"/>
+      <c r="DC70" s="70"/>
+      <c r="DD70" s="70"/>
+      <c r="DE70" s="70"/>
+      <c r="DF70" s="70"/>
+      <c r="DG70" s="70"/>
+      <c r="DH70" s="70"/>
+      <c r="DI70" s="70"/>
+      <c r="DJ70" s="70"/>
+      <c r="DK70" s="70"/>
+      <c r="DL70" s="70"/>
+      <c r="DM70" s="70"/>
+      <c r="DN70" s="70"/>
+      <c r="DO70" s="70"/>
+      <c r="DP70" s="70"/>
     </row>
-    <row r="71" spans="1:106" ht="15">
+    <row r="71" spans="1:120" ht="15" x14ac:dyDescent="0.2">
       <c r="G71" s="69"/>
       <c r="H71" s="69"/>
       <c r="I71" s="70"/>
@@ -11244,8 +13672,22 @@
       <c r="CZ71" s="70"/>
       <c r="DA71" s="70"/>
       <c r="DB71" s="70"/>
+      <c r="DC71" s="70"/>
+      <c r="DD71" s="70"/>
+      <c r="DE71" s="70"/>
+      <c r="DF71" s="70"/>
+      <c r="DG71" s="70"/>
+      <c r="DH71" s="70"/>
+      <c r="DI71" s="70"/>
+      <c r="DJ71" s="70"/>
+      <c r="DK71" s="70"/>
+      <c r="DL71" s="70"/>
+      <c r="DM71" s="70"/>
+      <c r="DN71" s="70"/>
+      <c r="DO71" s="70"/>
+      <c r="DP71" s="70"/>
     </row>
-    <row r="72" spans="1:106" ht="15">
+    <row r="72" spans="1:120" ht="15" x14ac:dyDescent="0.2">
       <c r="G72" s="69"/>
       <c r="H72" s="69"/>
       <c r="I72" s="70"/>
@@ -11346,55 +13788,63 @@
       <c r="CZ72" s="70"/>
       <c r="DA72" s="70"/>
       <c r="DB72" s="70"/>
+      <c r="DC72" s="70"/>
+      <c r="DD72" s="70"/>
+      <c r="DE72" s="70"/>
+      <c r="DF72" s="70"/>
+      <c r="DG72" s="70"/>
+      <c r="DH72" s="70"/>
+      <c r="DI72" s="70"/>
+      <c r="DJ72" s="70"/>
+      <c r="DK72" s="70"/>
+      <c r="DL72" s="70"/>
+      <c r="DM72" s="70"/>
+      <c r="DN72" s="70"/>
+      <c r="DO72" s="70"/>
+      <c r="DP72" s="70"/>
     </row>
-    <row r="73" spans="1:106" ht="15">
+    <row r="73" spans="1:120" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:106" ht="15"/>
-    <row r="75" spans="1:106" ht="15"/>
-    <row r="76" spans="1:106" ht="15"/>
-    <row r="77" spans="1:106" ht="15"/>
-    <row r="78" spans="1:106" ht="15"/>
-    <row r="79" spans="1:106" ht="15">
+    <row r="74" spans="1:120" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:120" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:120" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:120" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:120" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:120" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:106" ht="15"/>
-    <row r="81" spans="1:7" ht="15"/>
-    <row r="82" spans="1:7" ht="15"/>
-    <row r="83" spans="1:7" ht="15"/>
-    <row r="84" spans="1:7" ht="15"/>
-    <row r="85" spans="1:7" ht="15">
+    <row r="80" spans="1:120" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="409.6">
+    <row r="86" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A86" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15">
+    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="1:7" ht="15">
+    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="C88" s="10"/>
       <c r="F88" s="29"/>
     </row>
-    <row r="89" spans="1:7" ht="15">
+    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="C89" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
+  <mergeCells count="20">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:G5"/>
@@ -11407,9 +13857,17 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D46">
-    <cfRule type="dataBar" priority="32">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11418,94 +13876,120 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL46">
-    <cfRule type="expression" dxfId="20" priority="51">
+    <cfRule type="expression" dxfId="26" priority="57">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL46">
-    <cfRule type="expression" dxfId="19" priority="45">
+    <cfRule type="expression" dxfId="25" priority="51">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="52" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM5:BS46">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM7:BS46">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT5:BZ46">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>AND(TODAY()&gt;=BT$5,TODAY()&lt;BU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT7:BZ46">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>AND(task_start&lt;=BT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BT$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
       <formula>AND(task_end&gt;=BT$5,task_start&lt;BU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA5:CG46">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA7:CG46">
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>AND(task_start&lt;=CA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
       <formula>AND(task_end&gt;=CA$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH5:CN46">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>AND(TODAY()&gt;=CH$5,TODAY()&lt;CI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH7:CN46">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>AND(task_start&lt;=CH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CH$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=CH$5,task_start&lt;CI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO5:CU46">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>AND(TODAY()&gt;=CO$5,TODAY()&lt;CP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO7:CU46">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>AND(task_start&lt;=CO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CO$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>AND(task_end&gt;=CO$5,task_start&lt;CP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV5:DB46">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>AND(TODAY()&gt;=CV$5,TODAY()&lt;CW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV7:DB46">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>AND(task_start&lt;=CV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CV$5)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+      <formula>AND(task_end&gt;=CV$5,task_start&lt;CW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DC5:DI46">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>AND(TODAY()&gt;=DC$5,TODAY()&lt;DD$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DC7:DI46">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>AND(task_start&lt;=DC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DC$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+      <formula>AND(task_end&gt;=DC$5,task_start&lt;DD$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DJ5:DP46">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(TODAY()&gt;=DJ$5,TODAY()&lt;DK$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DJ7:DP46">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(task_start&lt;=DJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DJ$5)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>AND(task_end&gt;=CV$5,task_start&lt;CW$5)</formula>
+      <formula>AND(task_end&gt;=DJ$5,task_start&lt;DK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -11536,87 +14020,87 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="87.1640625" style="19" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
-    <row r="2" spans="1:2" s="21" customFormat="1" ht="16" customHeight="1">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:2" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="20"/>
     </row>
-    <row r="3" spans="1:2" s="25" customFormat="1" ht="27" customHeight="1">
+    <row r="3" spans="1:2" s="25" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="26"/>
     </row>
-    <row r="4" spans="1:2" s="22" customFormat="1" ht="26" customHeight="1">
+    <row r="4" spans="1:2" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74" customHeight="1">
+    <row r="5" spans="1:2" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="19" customFormat="1" ht="205" customHeight="1">
+    <row r="7" spans="1:2" s="19" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="47" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="22" customFormat="1" ht="26" customHeight="1">
+    <row r="8" spans="1:2" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="48" customHeight="1">
+    <row r="9" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="19" customFormat="1" ht="28" customHeight="1">
+    <row r="10" spans="1:2" s="19" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="22" customFormat="1" ht="26" customHeight="1">
+    <row r="11" spans="1:2" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="32" customHeight="1">
+    <row r="12" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="19" customFormat="1" ht="28" customHeight="1">
+    <row r="13" spans="1:2" s="19" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="48" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="22" customFormat="1" ht="26" customHeight="1">
+    <row r="14" spans="1:2" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="64" customHeight="1">
+    <row r="16" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
         <v>73</v>
       </c>
